--- a/Logicalrules-Ref.xlsx
+++ b/Logicalrules-Ref.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C8E8CE-4385-9642-80C9-E8E77CE07514}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F359F9-2039-B240-9C87-75E181422CDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
   </bookViews>
@@ -561,10 +561,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -885,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CE21BD-1222-F943-AE91-63D74D2723EB}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>87</v>
       </c>
@@ -1125,10 +1125,10 @@
       <c r="B16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>124</v>
       </c>
       <c r="E16" s="7"/>
@@ -1140,8 +1140,8 @@
       <c r="B17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1154,7 +1154,7 @@
       <c r="C18" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>126</v>
       </c>
       <c r="E18" s="7"/>
@@ -1169,7 +1169,7 @@
       <c r="C19" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">

--- a/Logicalrules-Ref.xlsx
+++ b/Logicalrules-Ref.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/GitHub/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F359F9-2039-B240-9C87-75E181422CDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E71894-C27D-594F-BE97-70572F6B5312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
+    <workbookView xWindow="5060" yWindow="780" windowWidth="35200" windowHeight="21100" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Interaction" sheetId="2" r:id="rId1"/>
     <sheet name="Neurogenic genes" sheetId="1" r:id="rId2"/>
+    <sheet name="stableStates" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="142">
   <si>
     <t>sna</t>
   </si>
@@ -229,9 +230,6 @@
     <t>﻿Baker 1987; Lee et al. 1992; Mohler and Vani 1992</t>
   </si>
   <si>
-    <t>﻿en/hh, ptc, wg are  transcribed at the anterior cells via Ci activator.</t>
-  </si>
-  <si>
     <t>Fz</t>
   </si>
   <si>
@@ -343,71 +341,25 @@
     <t>Neurons</t>
   </si>
   <si>
-    <t>((ind | vnd) &amp; (gsb | wg | en)) | (msh &amp; (wg | gsb | en))</t>
-  </si>
-  <si>
-    <t>in row 5, ptc represses gsb</t>
-  </si>
-  <si>
     <t>Bhat et al., 1999</t>
   </si>
   <si>
     <t>Gallet et al., 2000, Chen et al., 1999, Bhat et al., 1999</t>
   </si>
   <si>
-    <t>﻿The secreted Hh interacts with its receptor Ptc, thus relieving the repression of Ptc on Smo. En positively regulates the hh gene and negatively regulates the Hedgehog targets encoded by ci, ptc and dpp.</t>
-  </si>
-  <si>
-    <t>The secreted Hh interacts with its receptor Ptc, thus relieving the repression of Ptc on Smo</t>
-  </si>
-  <si>
-    <t>﻿Wg can also autoregulate via Gsb.</t>
-  </si>
-  <si>
-    <t>The Wg signal is then transduced across the
-membrane involving Frizzled proteins (such as Fz and DFz2) in the
-adjacent receiving cells</t>
-  </si>
-  <si>
     <t>﻿Once Smo is freed of the inhibitory effects of Ptc, Smo then signals through unknown mechanisms to the Fu/Cos2/Ci complex, causing hyperphosphorylation of Fu and Cos2 and causing the complex to loosen its hold on microtubules. This leads to the stabilization of full length Ci, which can then travel to the nucleus and function as a transcriptional activator, upregulating transcription of Hh target genes.</t>
   </si>
   <si>
-    <t>﻿One of the functions of En is to maintain hh expression. ﻿Ci_rep (Ci75)  which moves to the nucleus and represses Hh target genes.</t>
-  </si>
-  <si>
     <t>Kent Nybakken* and Norbert Perrimon†, 2002, https://doi.org/10.1016/S0959-437X(02)00333-7</t>
   </si>
   <si>
-    <t>﻿In ﻿the absence of Hh ligand, repression of Smo allows Drosophila Protein Kinase A phosphorylation of Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci75</t>
-  </si>
-  <si>
-    <t>﻿Finally, Drosophila Protein Kinase A phosphorylates Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep (Ci75)</t>
-  </si>
-  <si>
-    <t>Spitz encodes ligand that activate Egfr. Argos ﻿functions as an inhibitor of the signaling triggered by the Drosophila EGF receptor (DER).</t>
-  </si>
-  <si>
     <t>Ingham PW, McMahon AP, Genes Dev. 2001 Dec 1;15(23):3059-87. doi: 10.1101/gad.938601. PMID: 11731473.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Hong J, Hendrix D Papatsenko D et al. DOI: 10.1073/pnas.0806476105.  
-Golembo MSchweitzer RFreeman M et al.Development (1996) 122(1) 223-230</t>
-  </si>
-  <si>
-    <t>Rolled (rl) encodes the mitogen activated protein (MAP) kinase, core component of the RAS/MAPK pathway. Egfr activation induces RAS/MAPK pathway.﻿Cells with a loss of function in rolled, as expected, produce the same cell-death phenotype as seen in an EGF loss of function.</t>
-  </si>
-  <si>
     <t>﻿Brunner, D.; Oellers, N.; Szabad, J.; Biggs, W.H., 3rd; Zipursky, S.L.; Hafen, E. A gain-of-function mutation in Drosophila MAP kinase activates multiple receptor tyrosine kinase signaling pathways. Cell 1994, 76, 875–888.</t>
   </si>
   <si>
     <t>﻿Brunner, D.; Oellers, N.; Szabad, J.; Biggs, W.H., 3rd; Zipursky, S.L.; Hafen, E. A gain-of-function mutation in Drosophila MAP kinase activates multiple receptor tyrosine kinase signaling pathways. Cell 1994, 76, 875–888. Oellers, N.; Hafen, E. Biochemical characterization of rolledsem, an activated form of Drosophila mitogen-activated protein kinase. J. Biol. Chem. 1996, 271, 24939–24944.</t>
-  </si>
-  <si>
-    <t>﻿The Ras pathway activates pnt and inhibits yan(aop)</t>
-  </si>
-  <si>
-    <t>﻿Activated rolled phosphorylates and activates the transcription factors such as pointed</t>
   </si>
   <si>
     <t>﻿Karin Dumstrei et al.,1998, Klaes et al., 1994; Gabay et al., 1996)﻿</t>
@@ -420,28 +372,112 @@
 </t>
   </si>
   <si>
-    <t>﻿Vnd represses ind (and msh) in the ventral neuroectoderm, and ind represses msh in the intermediate neuroectoderm.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (Cowden and Levine, 2003), ﻿J. Seibert, R. Urbach / Developmental Biology 346 (2010) 332–345</t>
   </si>
   <si>
     <t>see 18</t>
-  </si>
-  <si>
-    <t>Boolean reactions have been driven provided the information on morphologies of the NBs observed in vivo around late stage 11 (according to Bossing et al., 1996). ﻿Gene expression along the A/P axis (e.g., wg, wingless; gsb, gooseberry; en, engrailed) and the dorso-ventral axis (vnd, ventral nervous system defective; ind, intermediate neuroblasts defective; msh, muscle segment homeobox; and DER, Drosophila EGF receptor) subdivide the vNR into a grid-like Cartesian coordinate system. This system provides positional information, which specifies the identities of proneural clusters. Each proneural cluster gives rise to one specific NB. For example, NB6-4 delaminates from a proneural cluster that expresses msh and engrailed. NB4-6 gives rise to glial cells exclusively.</t>
   </si>
   <si>
     <t>﻿James B. Skeath, ﻿BioEssays1999;21:922–931.
 Technau, G.M., 2 006,235:861-869. https://doi.org/10.1002/dvdy.20566; Hartmut Schmidt,  Developmental Biology, Volume 189, Issue 2, 1997,
 Pages 186-204, ISSN 0012-1606, https://doi.org/10.1006/dbio.1997.8660.; ﻿Gerhard M. Technau ﻿DEVELOPMENTAL DYNAMICS 235:861–869, 2006</t>
+  </si>
+  <si>
+    <t>The Wg signal is then transduced across the
+membrane involving Frizzled proteins (such as Fz and DFz2) in the
+adjacent receiving cells.</t>
+  </si>
+  <si>
+    <t>In row 5 cells, ptc represses gsb.</t>
+  </si>
+  <si>
+    <t>En/hh, ptc, wg are transcribed at the anterior cells via Ci activator.</t>
+  </si>
+  <si>
+    <t>Secreted Hh interacts with its receptor Ptc, thus relieving the repression of Ptc on Smo. En positively regulates the hh gene and negatively regulates the Hedgehog targets encoded by ci, ptc and dpp.</t>
+  </si>
+  <si>
+    <t>Secreted Hh interacts with its receptor Ptc, thus relieving the repression of Ptc on Smo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿One of the functions of En is to maintain hh expression. ﻿ Ci75 (Ci_rep) which moves to the nucleus and represses Hh target genes. </t>
+  </si>
+  <si>
+    <t>﻿In ﻿the absence of Hh ligand, repression of Smo allows Drosophila Protein Kinase A (Pka) phosphorylation of Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.</t>
+  </si>
+  <si>
+    <t>Spitz encodes ligand that activate Egfr. Argos ﻿functions as an inhibitor of the signaling triggered by Egfr.</t>
+  </si>
+  <si>
+    <t>Rl encodes the mitogen activated protein (MAP) kinase, core component of the RAS/MAPK pathway. Egfr activation induces RAS/MAPK pathway.﻿Cells with a loss of function in Rl produce the same cell-death phenotype as seen in an EGF loss of function.</t>
+  </si>
+  <si>
+    <t>﻿Activated Rl phosphorylates and activates the transcription factors such as Pnt.</t>
+  </si>
+  <si>
+    <t>RAS/MAPK pathway which is represented with its core components Rl (see 13th reaction) activates Pnt and inhibits Aop.</t>
+  </si>
+  <si>
+    <t>﻿Vnd represses ind and msh in the ventral neuroectoderm, and ind represses msh in the intermediate neuroectoderm.</t>
+  </si>
+  <si>
+    <t>Boolean reactions have been driven based on the information on morphologies of the NBs observed in vivo around late stage 11 (according to Bossing et al., 1996). ﻿Gene expression along the A/P axis (e.g., wg, wingless; gsb, gooseberry; en, engrailed) and the dorso-ventral axis (vnd, ventral nervous system defective; ind, intermediate neuroblasts defective; msh, muscle segment homeobox; and DER, Drosophila EGF receptor) subdivide the vNR into a grid-like Cartesian coordinate system. This system provides positional information, which specifies the identities of proneural clusters. Each proneural cluster gives rise to one specific NB. For example, NB6-4 delaminates from a proneural cluster that expresses msh and engrailed. NB4-6 gives rise to glial cells exclusively.</t>
+  </si>
+  <si>
+    <t>(vnd | ind | msh) &amp; (wg | gsb | en)</t>
+  </si>
+  <si>
+    <t>Pka phosphorylates Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.</t>
+  </si>
+  <si>
+    <t>Hong J, Hendrix D Papatsenko D et al. DOI: 10.1073/pnas.0806476105.  
+Golembo MSchweitzer RFreeman M et al.Development (1996) 122(1) 223-230</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Hh_ex</t>
+  </si>
+  <si>
+    <t>Spi</t>
+  </si>
+  <si>
+    <t>Aos</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Hh</t>
+  </si>
+  <si>
+    <t>hkb?</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t> G</t>
+  </si>
+  <si>
+    <t>N </t>
+  </si>
+  <si>
+    <t> N</t>
+  </si>
+  <si>
+    <t>﻿Wg can also autoregulate via Gsb. Ci_act induces transcription of En, Ptc, and Wg.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -481,8 +517,18 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,8 +547,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -525,11 +601,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -549,26 +814,139 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CE21BD-1222-F943-AE91-63D74D2723EB}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,251 +1275,253 @@
     <col min="4" max="4" width="62.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>103</v>
+        <v>68</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>103</v>
+      <c r="C5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>103</v>
+        <v>77</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>111</v>
+        <v>74</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>115</v>
+        <v>78</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>116</v>
+      <c r="C12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>118</v>
+        <v>83</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>121</v>
+        <v>85</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>120</v>
+      <c r="C15" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>124</v>
+      <c r="C16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1149,13 +1529,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>126</v>
+        <v>95</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1164,50 +1544,50 @@
         <v>14</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="B22" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="7"/>
     </row>
@@ -1218,7 +1598,8 @@
       <c r="D23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D19"/>
@@ -1621,4 +2002,5189 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E54B9C-9798-7F46-81A1-C5EA92519C78}">
+  <dimension ref="B2:Z115"/>
+  <sheetViews>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="P109" sqref="P109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.1640625" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>94</v>
+      </c>
+      <c r="L37" t="s">
+        <v>97</v>
+      </c>
+      <c r="M37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C40" s="19">
+        <v>0</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>1</v>
+      </c>
+      <c r="F40" s="19">
+        <v>0</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19">
+        <v>0</v>
+      </c>
+      <c r="I40" s="19">
+        <v>1</v>
+      </c>
+      <c r="J40" s="19">
+        <v>0</v>
+      </c>
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="19">
+        <v>0</v>
+      </c>
+      <c r="M40" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="16">
+        <v>0</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C43" s="18">
+        <v>0</v>
+      </c>
+      <c r="D43" s="18">
+        <v>0</v>
+      </c>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1</v>
+      </c>
+      <c r="I43" s="18">
+        <v>0</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1</v>
+      </c>
+      <c r="K43" s="18">
+        <v>0</v>
+      </c>
+      <c r="L43" s="18">
+        <v>0</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="16">
+        <v>1</v>
+      </c>
+      <c r="G44" s="16">
+        <v>1</v>
+      </c>
+      <c r="H44" s="16">
+        <v>1</v>
+      </c>
+      <c r="I44" s="16">
+        <v>1</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C45" s="18">
+        <v>0</v>
+      </c>
+      <c r="D45" s="18">
+        <v>0</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18">
+        <v>1</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1</v>
+      </c>
+      <c r="I45" s="18">
+        <v>0</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1</v>
+      </c>
+      <c r="K45" s="18">
+        <v>0</v>
+      </c>
+      <c r="L45" s="18">
+        <v>0</v>
+      </c>
+      <c r="M45" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C46" s="18">
+        <v>0</v>
+      </c>
+      <c r="D46" s="18">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1</v>
+      </c>
+      <c r="I46" s="18">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1</v>
+      </c>
+      <c r="K46" s="18">
+        <v>0</v>
+      </c>
+      <c r="L46" s="18">
+        <v>0</v>
+      </c>
+      <c r="M46" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C47" s="18">
+        <v>0</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1</v>
+      </c>
+      <c r="I47" s="18">
+        <v>0</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1</v>
+      </c>
+      <c r="K47" s="18">
+        <v>0</v>
+      </c>
+      <c r="L47" s="18">
+        <v>0</v>
+      </c>
+      <c r="M47" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="16">
+        <v>1</v>
+      </c>
+      <c r="G48" s="16">
+        <v>1</v>
+      </c>
+      <c r="H48" s="16">
+        <v>1</v>
+      </c>
+      <c r="I48" s="16">
+        <v>1</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C49" s="18">
+        <v>0</v>
+      </c>
+      <c r="D49" s="18">
+        <v>1</v>
+      </c>
+      <c r="E49" s="18">
+        <v>1</v>
+      </c>
+      <c r="F49" s="18">
+        <v>1</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1</v>
+      </c>
+      <c r="H49" s="18">
+        <v>1</v>
+      </c>
+      <c r="I49" s="18">
+        <v>0</v>
+      </c>
+      <c r="J49" s="18">
+        <v>1</v>
+      </c>
+      <c r="K49" s="18">
+        <v>0</v>
+      </c>
+      <c r="L49" s="18">
+        <v>0</v>
+      </c>
+      <c r="M49" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C50" s="18">
+        <v>0</v>
+      </c>
+      <c r="D50" s="18">
+        <v>1</v>
+      </c>
+      <c r="E50" s="18">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18">
+        <v>1</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1</v>
+      </c>
+      <c r="H50" s="18">
+        <v>1</v>
+      </c>
+      <c r="I50" s="18">
+        <v>0</v>
+      </c>
+      <c r="J50" s="18">
+        <v>1</v>
+      </c>
+      <c r="K50" s="18">
+        <v>0</v>
+      </c>
+      <c r="L50" s="18">
+        <v>0</v>
+      </c>
+      <c r="M50" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C51" s="18">
+        <v>1</v>
+      </c>
+      <c r="D51" s="18">
+        <v>0</v>
+      </c>
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1</v>
+      </c>
+      <c r="H51" s="18">
+        <v>1</v>
+      </c>
+      <c r="I51" s="18">
+        <v>0</v>
+      </c>
+      <c r="J51" s="18">
+        <v>1</v>
+      </c>
+      <c r="K51" s="18">
+        <v>0</v>
+      </c>
+      <c r="L51" s="18">
+        <v>0</v>
+      </c>
+      <c r="M51" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C53" s="18">
+        <v>1</v>
+      </c>
+      <c r="D53" s="18">
+        <v>0</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1</v>
+      </c>
+      <c r="F53" s="18">
+        <v>1</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1</v>
+      </c>
+      <c r="H53" s="18">
+        <v>1</v>
+      </c>
+      <c r="I53" s="18">
+        <v>0</v>
+      </c>
+      <c r="J53" s="18">
+        <v>1</v>
+      </c>
+      <c r="K53" s="18">
+        <v>0</v>
+      </c>
+      <c r="L53" s="18">
+        <v>0</v>
+      </c>
+      <c r="M53" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C54" s="18">
+        <v>1</v>
+      </c>
+      <c r="D54" s="18">
+        <v>0</v>
+      </c>
+      <c r="E54" s="18">
+        <v>0</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1</v>
+      </c>
+      <c r="I54" s="18">
+        <v>0</v>
+      </c>
+      <c r="J54" s="18">
+        <v>1</v>
+      </c>
+      <c r="K54" s="18">
+        <v>0</v>
+      </c>
+      <c r="L54" s="18">
+        <v>0</v>
+      </c>
+      <c r="M54" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C55" s="18">
+        <v>1</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1</v>
+      </c>
+      <c r="E55" s="18">
+        <v>0</v>
+      </c>
+      <c r="F55" s="18">
+        <v>1</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1</v>
+      </c>
+      <c r="H55" s="18">
+        <v>1</v>
+      </c>
+      <c r="I55" s="18">
+        <v>0</v>
+      </c>
+      <c r="J55" s="18">
+        <v>1</v>
+      </c>
+      <c r="K55" s="18">
+        <v>0</v>
+      </c>
+      <c r="L55" s="18">
+        <v>0</v>
+      </c>
+      <c r="M55" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C56" s="19">
+        <v>1</v>
+      </c>
+      <c r="D56" s="19">
+        <v>1</v>
+      </c>
+      <c r="E56" s="19">
+        <v>1</v>
+      </c>
+      <c r="F56" s="19">
+        <v>1</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1</v>
+      </c>
+      <c r="H56" s="19">
+        <v>1</v>
+      </c>
+      <c r="I56" s="19">
+        <v>1</v>
+      </c>
+      <c r="J56" s="19">
+        <v>0</v>
+      </c>
+      <c r="K56" s="19">
+        <v>0</v>
+      </c>
+      <c r="L56" s="19">
+        <v>0</v>
+      </c>
+      <c r="M56" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="15">
+        <v>1</v>
+      </c>
+      <c r="G57" s="15">
+        <v>1</v>
+      </c>
+      <c r="H57" s="15">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" s="15">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15">
+        <v>1</v>
+      </c>
+      <c r="G58" s="15">
+        <v>1</v>
+      </c>
+      <c r="H58" s="15">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" s="15">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15">
+        <v>1</v>
+      </c>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
+      <c r="H59" s="17">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" s="17">
+        <v>1</v>
+      </c>
+      <c r="L59" s="17">
+        <v>1</v>
+      </c>
+      <c r="M59" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15">
+        <v>1</v>
+      </c>
+      <c r="G60" s="17">
+        <v>1</v>
+      </c>
+      <c r="H60" s="17">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" s="17">
+        <v>1</v>
+      </c>
+      <c r="L60" s="17">
+        <v>1</v>
+      </c>
+      <c r="M60" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15">
+        <v>1</v>
+      </c>
+      <c r="G61" s="17">
+        <v>1</v>
+      </c>
+      <c r="H61" s="17">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" s="17">
+        <v>1</v>
+      </c>
+      <c r="L61" s="17">
+        <v>1</v>
+      </c>
+      <c r="M61" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15">
+        <v>1</v>
+      </c>
+      <c r="G62" s="17">
+        <v>1</v>
+      </c>
+      <c r="H62" s="17">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" s="17">
+        <v>1</v>
+      </c>
+      <c r="L62" s="17">
+        <v>1</v>
+      </c>
+      <c r="M62" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" s="15">
+        <v>1</v>
+      </c>
+      <c r="G63" s="17">
+        <v>1</v>
+      </c>
+      <c r="H63" s="17">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" s="17">
+        <v>1</v>
+      </c>
+      <c r="L63" s="17">
+        <v>1</v>
+      </c>
+      <c r="M63" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" s="15">
+        <v>1</v>
+      </c>
+      <c r="G64" s="17">
+        <v>1</v>
+      </c>
+      <c r="H64" s="17">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" s="17">
+        <v>1</v>
+      </c>
+      <c r="L64" s="17">
+        <v>1</v>
+      </c>
+      <c r="M64" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" s="15">
+        <v>1</v>
+      </c>
+      <c r="G65" s="17">
+        <v>1</v>
+      </c>
+      <c r="H65" s="17">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" s="17">
+        <v>1</v>
+      </c>
+      <c r="L65" s="17">
+        <v>1</v>
+      </c>
+      <c r="M65" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" s="15">
+        <v>1</v>
+      </c>
+      <c r="G66" s="17">
+        <v>1</v>
+      </c>
+      <c r="H66" s="17">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" s="17">
+        <v>1</v>
+      </c>
+      <c r="L66" s="17">
+        <v>1</v>
+      </c>
+      <c r="M66" s="15">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69" s="16">
+        <v>0</v>
+      </c>
+      <c r="T69" s="16">
+        <v>0</v>
+      </c>
+      <c r="U69" s="16">
+        <v>0</v>
+      </c>
+      <c r="V69" s="16">
+        <v>0</v>
+      </c>
+      <c r="W69" s="16">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" s="16">
+        <v>1</v>
+      </c>
+      <c r="G70" s="16">
+        <v>1</v>
+      </c>
+      <c r="H70" s="16">
+        <v>1</v>
+      </c>
+      <c r="I70" s="16">
+        <v>0</v>
+      </c>
+      <c r="J70" s="16">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" s="16">
+        <v>1</v>
+      </c>
+      <c r="G71" s="16">
+        <v>1</v>
+      </c>
+      <c r="H71" s="16">
+        <v>1</v>
+      </c>
+      <c r="I71" s="16">
+        <v>0</v>
+      </c>
+      <c r="J71" s="16">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72" s="16">
+        <v>1</v>
+      </c>
+      <c r="G72" s="16">
+        <v>1</v>
+      </c>
+      <c r="H72" s="16">
+        <v>1</v>
+      </c>
+      <c r="I72" s="16">
+        <v>0</v>
+      </c>
+      <c r="J72" s="16">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" s="16">
+        <v>1</v>
+      </c>
+      <c r="G73" s="16">
+        <v>1</v>
+      </c>
+      <c r="H73" s="16">
+        <v>1</v>
+      </c>
+      <c r="I73" s="16">
+        <v>0</v>
+      </c>
+      <c r="J73" s="16">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C74" s="18">
+        <v>0</v>
+      </c>
+      <c r="D74" s="18">
+        <v>1</v>
+      </c>
+      <c r="E74" s="18">
+        <v>1</v>
+      </c>
+      <c r="F74" s="18">
+        <v>1</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1</v>
+      </c>
+      <c r="H74" s="18">
+        <v>1</v>
+      </c>
+      <c r="I74" s="18">
+        <v>0</v>
+      </c>
+      <c r="J74" s="18">
+        <v>1</v>
+      </c>
+      <c r="K74" s="18">
+        <v>0</v>
+      </c>
+      <c r="L74" s="18">
+        <v>0</v>
+      </c>
+      <c r="M74" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C75" s="18">
+        <v>0</v>
+      </c>
+      <c r="D75" s="18">
+        <v>1</v>
+      </c>
+      <c r="E75" s="18">
+        <v>0</v>
+      </c>
+      <c r="F75" s="18">
+        <v>1</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1</v>
+      </c>
+      <c r="H75" s="18">
+        <v>1</v>
+      </c>
+      <c r="I75" s="18">
+        <v>0</v>
+      </c>
+      <c r="J75" s="18">
+        <v>1</v>
+      </c>
+      <c r="K75" s="18">
+        <v>0</v>
+      </c>
+      <c r="L75" s="18">
+        <v>0</v>
+      </c>
+      <c r="M75" s="18">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C76" s="18">
+        <v>1</v>
+      </c>
+      <c r="D76" s="18">
+        <v>0</v>
+      </c>
+      <c r="E76" s="18">
+        <v>0</v>
+      </c>
+      <c r="F76" s="18">
+        <v>1</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1</v>
+      </c>
+      <c r="H76" s="18">
+        <v>1</v>
+      </c>
+      <c r="I76" s="18">
+        <v>0</v>
+      </c>
+      <c r="J76" s="18">
+        <v>1</v>
+      </c>
+      <c r="K76" s="18">
+        <v>0</v>
+      </c>
+      <c r="L76" s="18">
+        <v>0</v>
+      </c>
+      <c r="M76" s="18">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76" s="16">
+        <v>1</v>
+      </c>
+      <c r="S76" s="16">
+        <v>1</v>
+      </c>
+      <c r="T76" s="16">
+        <v>1</v>
+      </c>
+      <c r="U76" s="16">
+        <v>1</v>
+      </c>
+      <c r="V76" s="16">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" s="16">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77" s="16">
+        <v>1</v>
+      </c>
+      <c r="S77" s="16">
+        <v>1</v>
+      </c>
+      <c r="T77" s="16">
+        <v>1</v>
+      </c>
+      <c r="U77" s="16">
+        <v>1</v>
+      </c>
+      <c r="V77" s="16">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" s="16">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" s="16">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+    </row>
+    <row r="86" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F86" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G86" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I86" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="L86" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="M86" s="43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B87" s="55">
+        <v>1</v>
+      </c>
+      <c r="C87" s="22">
+        <v>0</v>
+      </c>
+      <c r="D87" s="22">
+        <v>0</v>
+      </c>
+      <c r="E87" s="22">
+        <v>0</v>
+      </c>
+      <c r="F87" s="22">
+        <v>0</v>
+      </c>
+      <c r="G87" s="22">
+        <v>0</v>
+      </c>
+      <c r="H87" s="22">
+        <v>0</v>
+      </c>
+      <c r="I87" s="22">
+        <v>0</v>
+      </c>
+      <c r="J87" s="22">
+        <v>0</v>
+      </c>
+      <c r="K87" s="22">
+        <v>1</v>
+      </c>
+      <c r="L87" s="22">
+        <v>0</v>
+      </c>
+      <c r="M87" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B88" s="56">
+        <v>2</v>
+      </c>
+      <c r="C88" s="22">
+        <v>0</v>
+      </c>
+      <c r="D88" s="22">
+        <v>0</v>
+      </c>
+      <c r="E88" s="22">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22">
+        <v>0</v>
+      </c>
+      <c r="H88" s="22">
+        <v>0</v>
+      </c>
+      <c r="I88" s="22">
+        <v>0</v>
+      </c>
+      <c r="J88" s="22">
+        <v>0</v>
+      </c>
+      <c r="K88" s="22">
+        <v>1</v>
+      </c>
+      <c r="L88" s="22">
+        <v>0</v>
+      </c>
+      <c r="M88" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B89" s="56">
+        <v>3</v>
+      </c>
+      <c r="C89" s="22">
+        <v>0</v>
+      </c>
+      <c r="D89" s="22">
+        <v>0</v>
+      </c>
+      <c r="E89" s="22">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22">
+        <v>0</v>
+      </c>
+      <c r="H89" s="22">
+        <v>0</v>
+      </c>
+      <c r="I89" s="22">
+        <v>0</v>
+      </c>
+      <c r="J89" s="22">
+        <v>0</v>
+      </c>
+      <c r="K89" s="22">
+        <v>1</v>
+      </c>
+      <c r="L89" s="22">
+        <v>0</v>
+      </c>
+      <c r="M89" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B90" s="56">
+        <v>4</v>
+      </c>
+      <c r="C90" s="22">
+        <v>0</v>
+      </c>
+      <c r="D90" s="22">
+        <v>0</v>
+      </c>
+      <c r="E90" s="22">
+        <v>0</v>
+      </c>
+      <c r="F90" s="24">
+        <v>0</v>
+      </c>
+      <c r="G90" s="24">
+        <v>0</v>
+      </c>
+      <c r="H90" s="24">
+        <v>0</v>
+      </c>
+      <c r="I90" s="24">
+        <v>0</v>
+      </c>
+      <c r="J90" s="24">
+        <v>0</v>
+      </c>
+      <c r="K90" s="22">
+        <v>1</v>
+      </c>
+      <c r="L90" s="22">
+        <v>0</v>
+      </c>
+      <c r="M90" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="56">
+        <v>5</v>
+      </c>
+      <c r="C91" s="25">
+        <v>0</v>
+      </c>
+      <c r="D91" s="25">
+        <v>0</v>
+      </c>
+      <c r="E91" s="26">
+        <v>1</v>
+      </c>
+      <c r="F91" s="25">
+        <v>0</v>
+      </c>
+      <c r="G91" s="25">
+        <v>0</v>
+      </c>
+      <c r="H91" s="25">
+        <v>0</v>
+      </c>
+      <c r="I91" s="27">
+        <v>1</v>
+      </c>
+      <c r="J91" s="25">
+        <v>0</v>
+      </c>
+      <c r="K91" s="25">
+        <v>0</v>
+      </c>
+      <c r="L91" s="25">
+        <v>0</v>
+      </c>
+      <c r="M91" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B92" s="56">
+        <v>6</v>
+      </c>
+      <c r="C92" s="21">
+        <v>0</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0</v>
+      </c>
+      <c r="E92" s="29">
+        <v>1</v>
+      </c>
+      <c r="F92" s="30">
+        <v>1</v>
+      </c>
+      <c r="G92" s="30">
+        <v>1</v>
+      </c>
+      <c r="H92" s="30">
+        <v>1</v>
+      </c>
+      <c r="I92" s="30">
+        <v>1</v>
+      </c>
+      <c r="J92" s="31">
+        <v>0</v>
+      </c>
+      <c r="K92" s="21">
+        <v>0</v>
+      </c>
+      <c r="L92" s="21">
+        <v>0</v>
+      </c>
+      <c r="M92" s="32">
+        <v>1</v>
+      </c>
+      <c r="P92" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q92" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="R92" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="S92" s="44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B93" s="56">
+        <v>7</v>
+      </c>
+      <c r="C93" s="22">
+        <v>0</v>
+      </c>
+      <c r="D93" s="33">
+        <v>1</v>
+      </c>
+      <c r="E93" s="33">
+        <v>1</v>
+      </c>
+      <c r="F93" s="34">
+        <v>1</v>
+      </c>
+      <c r="G93" s="34">
+        <v>1</v>
+      </c>
+      <c r="H93" s="34">
+        <v>1</v>
+      </c>
+      <c r="I93" s="34">
+        <v>1</v>
+      </c>
+      <c r="J93" s="24">
+        <v>0</v>
+      </c>
+      <c r="K93" s="22">
+        <v>0</v>
+      </c>
+      <c r="L93" s="22">
+        <v>0</v>
+      </c>
+      <c r="M93" s="35">
+        <v>1</v>
+      </c>
+      <c r="P93" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q93" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="R93" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="S93" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="T93" s="53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B94" s="56">
+        <v>8</v>
+      </c>
+      <c r="C94" s="33">
+        <v>1</v>
+      </c>
+      <c r="D94" s="22">
+        <v>0</v>
+      </c>
+      <c r="E94" s="33">
+        <v>1</v>
+      </c>
+      <c r="F94" s="34">
+        <v>1</v>
+      </c>
+      <c r="G94" s="34">
+        <v>1</v>
+      </c>
+      <c r="H94" s="34">
+        <v>1</v>
+      </c>
+      <c r="I94" s="34">
+        <v>1</v>
+      </c>
+      <c r="J94" s="22">
+        <v>0</v>
+      </c>
+      <c r="K94" s="22">
+        <v>0</v>
+      </c>
+      <c r="L94" s="22">
+        <v>0</v>
+      </c>
+      <c r="M94" s="35">
+        <v>1</v>
+      </c>
+      <c r="P94" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q94" s="52"/>
+      <c r="R94" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="S94" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="T94" s="54"/>
+    </row>
+    <row r="95" spans="2:20" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="56">
+        <v>9</v>
+      </c>
+      <c r="C95" s="26">
+        <v>1</v>
+      </c>
+      <c r="D95" s="26">
+        <v>1</v>
+      </c>
+      <c r="E95" s="26">
+        <v>1</v>
+      </c>
+      <c r="F95" s="36">
+        <v>1</v>
+      </c>
+      <c r="G95" s="36">
+        <v>1</v>
+      </c>
+      <c r="H95" s="36">
+        <v>1</v>
+      </c>
+      <c r="I95" s="36">
+        <v>1</v>
+      </c>
+      <c r="J95" s="25">
+        <v>0</v>
+      </c>
+      <c r="K95" s="25">
+        <v>0</v>
+      </c>
+      <c r="L95" s="25">
+        <v>0</v>
+      </c>
+      <c r="M95" s="37">
+        <v>1</v>
+      </c>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="46"/>
+      <c r="R95" s="46"/>
+      <c r="S95" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="T95" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B96" s="56">
+        <v>10</v>
+      </c>
+      <c r="C96" s="21">
+        <v>0</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="21">
+        <v>0</v>
+      </c>
+      <c r="F96" s="30">
+        <v>1</v>
+      </c>
+      <c r="G96" s="30">
+        <v>1</v>
+      </c>
+      <c r="H96" s="30">
+        <v>1</v>
+      </c>
+      <c r="I96" s="31">
+        <v>0</v>
+      </c>
+      <c r="J96" s="30">
+        <v>1</v>
+      </c>
+      <c r="K96" s="21">
+        <v>0</v>
+      </c>
+      <c r="L96" s="21">
+        <v>0</v>
+      </c>
+      <c r="M96" s="32">
+        <v>1</v>
+      </c>
+      <c r="P96" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q96" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="R96" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="S96" s="52"/>
+      <c r="T96" s="54"/>
+    </row>
+    <row r="97" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B97" s="56">
+        <v>11</v>
+      </c>
+      <c r="C97" s="22">
+        <v>0</v>
+      </c>
+      <c r="D97" s="22">
+        <v>0</v>
+      </c>
+      <c r="E97" s="33">
+        <v>1</v>
+      </c>
+      <c r="F97" s="34">
+        <v>1</v>
+      </c>
+      <c r="G97" s="34">
+        <v>1</v>
+      </c>
+      <c r="H97" s="34">
+        <v>1</v>
+      </c>
+      <c r="I97" s="24">
+        <v>0</v>
+      </c>
+      <c r="J97" s="34">
+        <v>1</v>
+      </c>
+      <c r="K97" s="22">
+        <v>0</v>
+      </c>
+      <c r="L97" s="22">
+        <v>0</v>
+      </c>
+      <c r="M97" s="35">
+        <v>1</v>
+      </c>
+      <c r="P97" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q97" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="R97" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="S97" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="T97" s="53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B98" s="56">
+        <v>12</v>
+      </c>
+      <c r="C98" s="22">
+        <v>0</v>
+      </c>
+      <c r="D98" s="22">
+        <v>0</v>
+      </c>
+      <c r="E98" s="22">
+        <v>0</v>
+      </c>
+      <c r="F98" s="34">
+        <v>1</v>
+      </c>
+      <c r="G98" s="34">
+        <v>1</v>
+      </c>
+      <c r="H98" s="34">
+        <v>1</v>
+      </c>
+      <c r="I98" s="24">
+        <v>0</v>
+      </c>
+      <c r="J98" s="34">
+        <v>1</v>
+      </c>
+      <c r="K98" s="22">
+        <v>0</v>
+      </c>
+      <c r="L98" s="22">
+        <v>0</v>
+      </c>
+      <c r="M98" s="35">
+        <v>1</v>
+      </c>
+      <c r="P98" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q98" s="52"/>
+      <c r="R98" s="52"/>
+      <c r="S98" s="52"/>
+      <c r="T98" s="54"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B99" s="56">
+        <v>13</v>
+      </c>
+      <c r="C99" s="22">
+        <v>0</v>
+      </c>
+      <c r="D99" s="33">
+        <v>1</v>
+      </c>
+      <c r="E99" s="22">
+        <v>0</v>
+      </c>
+      <c r="F99" s="34">
+        <v>1</v>
+      </c>
+      <c r="G99" s="34">
+        <v>1</v>
+      </c>
+      <c r="H99" s="34">
+        <v>1</v>
+      </c>
+      <c r="I99" s="24">
+        <v>0</v>
+      </c>
+      <c r="J99" s="34">
+        <v>1</v>
+      </c>
+      <c r="K99" s="22">
+        <v>0</v>
+      </c>
+      <c r="L99" s="22">
+        <v>0</v>
+      </c>
+      <c r="M99" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B100" s="56">
+        <v>14</v>
+      </c>
+      <c r="C100" s="24">
+        <v>0</v>
+      </c>
+      <c r="D100" s="33">
+        <v>1</v>
+      </c>
+      <c r="E100" s="33">
+        <v>1</v>
+      </c>
+      <c r="F100" s="34">
+        <v>1</v>
+      </c>
+      <c r="G100" s="34">
+        <v>1</v>
+      </c>
+      <c r="H100" s="34">
+        <v>1</v>
+      </c>
+      <c r="I100" s="24">
+        <v>0</v>
+      </c>
+      <c r="J100" s="34">
+        <v>1</v>
+      </c>
+      <c r="K100" s="24">
+        <v>0</v>
+      </c>
+      <c r="L100" s="24">
+        <v>0</v>
+      </c>
+      <c r="M100" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B101" s="56">
+        <v>15</v>
+      </c>
+      <c r="C101" s="24">
+        <v>0</v>
+      </c>
+      <c r="D101" s="33">
+        <v>1</v>
+      </c>
+      <c r="E101" s="24">
+        <v>0</v>
+      </c>
+      <c r="F101" s="34">
+        <v>1</v>
+      </c>
+      <c r="G101" s="34">
+        <v>1</v>
+      </c>
+      <c r="H101" s="34">
+        <v>1</v>
+      </c>
+      <c r="I101" s="24">
+        <v>0</v>
+      </c>
+      <c r="J101" s="34">
+        <v>1</v>
+      </c>
+      <c r="K101" s="24">
+        <v>0</v>
+      </c>
+      <c r="L101" s="24">
+        <v>0</v>
+      </c>
+      <c r="M101" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B102" s="56">
+        <v>16</v>
+      </c>
+      <c r="C102" s="33">
+        <v>1</v>
+      </c>
+      <c r="D102" s="24">
+        <v>0</v>
+      </c>
+      <c r="E102" s="24">
+        <v>0</v>
+      </c>
+      <c r="F102" s="34">
+        <v>1</v>
+      </c>
+      <c r="G102" s="34">
+        <v>1</v>
+      </c>
+      <c r="H102" s="34">
+        <v>1</v>
+      </c>
+      <c r="I102" s="24">
+        <v>0</v>
+      </c>
+      <c r="J102" s="34">
+        <v>1</v>
+      </c>
+      <c r="K102" s="24">
+        <v>0</v>
+      </c>
+      <c r="L102" s="24">
+        <v>0</v>
+      </c>
+      <c r="M102" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="56">
+        <v>17</v>
+      </c>
+      <c r="C103" s="33">
+        <v>1</v>
+      </c>
+      <c r="D103" s="22">
+        <v>0</v>
+      </c>
+      <c r="E103" s="33">
+        <v>1</v>
+      </c>
+      <c r="F103" s="34">
+        <v>1</v>
+      </c>
+      <c r="G103" s="34">
+        <v>1</v>
+      </c>
+      <c r="H103" s="34">
+        <v>1</v>
+      </c>
+      <c r="I103" s="22">
+        <v>0</v>
+      </c>
+      <c r="J103" s="34">
+        <v>1</v>
+      </c>
+      <c r="K103" s="22">
+        <v>0</v>
+      </c>
+      <c r="L103" s="22">
+        <v>0</v>
+      </c>
+      <c r="M103" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B104" s="56">
+        <v>18</v>
+      </c>
+      <c r="C104" s="33">
+        <v>1</v>
+      </c>
+      <c r="D104" s="22">
+        <v>0</v>
+      </c>
+      <c r="E104" s="22">
+        <v>0</v>
+      </c>
+      <c r="F104" s="34">
+        <v>1</v>
+      </c>
+      <c r="G104" s="34">
+        <v>1</v>
+      </c>
+      <c r="H104" s="34">
+        <v>1</v>
+      </c>
+      <c r="I104" s="22">
+        <v>0</v>
+      </c>
+      <c r="J104" s="34">
+        <v>1</v>
+      </c>
+      <c r="K104" s="22">
+        <v>0</v>
+      </c>
+      <c r="L104" s="22">
+        <v>0</v>
+      </c>
+      <c r="M104" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B105" s="56">
+        <v>19</v>
+      </c>
+      <c r="C105" s="33">
+        <v>1</v>
+      </c>
+      <c r="D105" s="33">
+        <v>1</v>
+      </c>
+      <c r="E105" s="22">
+        <v>0</v>
+      </c>
+      <c r="F105" s="34">
+        <v>1</v>
+      </c>
+      <c r="G105" s="34">
+        <v>1</v>
+      </c>
+      <c r="H105" s="34">
+        <v>1</v>
+      </c>
+      <c r="I105" s="22">
+        <v>0</v>
+      </c>
+      <c r="J105" s="34">
+        <v>1</v>
+      </c>
+      <c r="K105" s="22">
+        <v>0</v>
+      </c>
+      <c r="L105" s="22">
+        <v>0</v>
+      </c>
+      <c r="M105" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B106" s="56">
+        <v>20</v>
+      </c>
+      <c r="C106" s="33">
+        <v>1</v>
+      </c>
+      <c r="D106" s="33">
+        <v>1</v>
+      </c>
+      <c r="E106" s="33">
+        <v>1</v>
+      </c>
+      <c r="F106" s="34">
+        <v>1</v>
+      </c>
+      <c r="G106" s="34">
+        <v>1</v>
+      </c>
+      <c r="H106" s="34">
+        <v>1</v>
+      </c>
+      <c r="I106" s="22">
+        <v>0</v>
+      </c>
+      <c r="J106" s="34">
+        <v>1</v>
+      </c>
+      <c r="K106" s="22">
+        <v>0</v>
+      </c>
+      <c r="L106" s="22">
+        <v>0</v>
+      </c>
+      <c r="M106" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="56">
+        <v>21</v>
+      </c>
+      <c r="C107" s="26">
+        <v>1</v>
+      </c>
+      <c r="D107" s="26">
+        <v>1</v>
+      </c>
+      <c r="E107" s="25">
+        <v>0</v>
+      </c>
+      <c r="F107" s="36">
+        <v>1</v>
+      </c>
+      <c r="G107" s="36">
+        <v>1</v>
+      </c>
+      <c r="H107" s="36">
+        <v>1</v>
+      </c>
+      <c r="I107" s="25">
+        <v>0</v>
+      </c>
+      <c r="J107" s="36">
+        <v>1</v>
+      </c>
+      <c r="K107" s="25">
+        <v>0</v>
+      </c>
+      <c r="L107" s="25">
+        <v>0</v>
+      </c>
+      <c r="M107" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B108" s="56">
+        <v>22</v>
+      </c>
+      <c r="C108" s="21">
+        <v>0</v>
+      </c>
+      <c r="D108" s="21">
+        <v>0</v>
+      </c>
+      <c r="E108" s="21">
+        <v>0</v>
+      </c>
+      <c r="F108" s="30">
+        <v>1</v>
+      </c>
+      <c r="G108" s="38">
+        <v>1</v>
+      </c>
+      <c r="H108" s="38">
+        <v>1</v>
+      </c>
+      <c r="I108" s="21">
+        <v>0</v>
+      </c>
+      <c r="J108" s="21">
+        <v>0</v>
+      </c>
+      <c r="K108" s="38">
+        <v>1</v>
+      </c>
+      <c r="L108" s="38">
+        <v>1</v>
+      </c>
+      <c r="M108" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B109" s="56">
+        <v>23</v>
+      </c>
+      <c r="C109" s="22">
+        <v>0</v>
+      </c>
+      <c r="D109" s="22">
+        <v>0</v>
+      </c>
+      <c r="E109" s="22">
+        <v>0</v>
+      </c>
+      <c r="F109" s="34">
+        <v>1</v>
+      </c>
+      <c r="G109" s="39">
+        <v>1</v>
+      </c>
+      <c r="H109" s="39">
+        <v>1</v>
+      </c>
+      <c r="I109" s="22">
+        <v>0</v>
+      </c>
+      <c r="J109" s="22">
+        <v>0</v>
+      </c>
+      <c r="K109" s="39">
+        <v>1</v>
+      </c>
+      <c r="L109" s="39">
+        <v>1</v>
+      </c>
+      <c r="M109" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B110" s="56">
+        <v>24</v>
+      </c>
+      <c r="C110" s="22">
+        <v>0</v>
+      </c>
+      <c r="D110" s="33">
+        <v>1</v>
+      </c>
+      <c r="E110" s="22">
+        <v>0</v>
+      </c>
+      <c r="F110" s="34">
+        <v>1</v>
+      </c>
+      <c r="G110" s="39">
+        <v>1</v>
+      </c>
+      <c r="H110" s="39">
+        <v>1</v>
+      </c>
+      <c r="I110" s="22">
+        <v>0</v>
+      </c>
+      <c r="J110" s="22">
+        <v>0</v>
+      </c>
+      <c r="K110" s="39">
+        <v>1</v>
+      </c>
+      <c r="L110" s="39">
+        <v>1</v>
+      </c>
+      <c r="M110" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B111" s="56">
+        <v>25</v>
+      </c>
+      <c r="C111" s="22">
+        <v>0</v>
+      </c>
+      <c r="D111" s="33">
+        <v>1</v>
+      </c>
+      <c r="E111" s="22">
+        <v>0</v>
+      </c>
+      <c r="F111" s="34">
+        <v>1</v>
+      </c>
+      <c r="G111" s="39">
+        <v>1</v>
+      </c>
+      <c r="H111" s="39">
+        <v>1</v>
+      </c>
+      <c r="I111" s="22">
+        <v>0</v>
+      </c>
+      <c r="J111" s="22">
+        <v>0</v>
+      </c>
+      <c r="K111" s="39">
+        <v>1</v>
+      </c>
+      <c r="L111" s="39">
+        <v>1</v>
+      </c>
+      <c r="M111" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B112" s="56">
+        <v>26</v>
+      </c>
+      <c r="C112" s="33">
+        <v>1</v>
+      </c>
+      <c r="D112" s="22">
+        <v>0</v>
+      </c>
+      <c r="E112" s="22">
+        <v>0</v>
+      </c>
+      <c r="F112" s="34">
+        <v>1</v>
+      </c>
+      <c r="G112" s="39">
+        <v>1</v>
+      </c>
+      <c r="H112" s="39">
+        <v>1</v>
+      </c>
+      <c r="I112" s="22">
+        <v>0</v>
+      </c>
+      <c r="J112" s="22">
+        <v>0</v>
+      </c>
+      <c r="K112" s="39">
+        <v>1</v>
+      </c>
+      <c r="L112" s="39">
+        <v>1</v>
+      </c>
+      <c r="M112" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B113" s="56">
+        <v>27</v>
+      </c>
+      <c r="C113" s="33">
+        <v>1</v>
+      </c>
+      <c r="D113" s="22">
+        <v>0</v>
+      </c>
+      <c r="E113" s="22">
+        <v>0</v>
+      </c>
+      <c r="F113" s="34">
+        <v>1</v>
+      </c>
+      <c r="G113" s="39">
+        <v>1</v>
+      </c>
+      <c r="H113" s="39">
+        <v>1</v>
+      </c>
+      <c r="I113" s="22">
+        <v>0</v>
+      </c>
+      <c r="J113" s="22">
+        <v>0</v>
+      </c>
+      <c r="K113" s="39">
+        <v>1</v>
+      </c>
+      <c r="L113" s="39">
+        <v>1</v>
+      </c>
+      <c r="M113" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B114" s="56">
+        <v>28</v>
+      </c>
+      <c r="C114" s="33">
+        <v>1</v>
+      </c>
+      <c r="D114" s="33">
+        <v>1</v>
+      </c>
+      <c r="E114" s="22">
+        <v>0</v>
+      </c>
+      <c r="F114" s="34">
+        <v>1</v>
+      </c>
+      <c r="G114" s="39">
+        <v>1</v>
+      </c>
+      <c r="H114" s="39">
+        <v>1</v>
+      </c>
+      <c r="I114" s="22">
+        <v>0</v>
+      </c>
+      <c r="J114" s="22">
+        <v>0</v>
+      </c>
+      <c r="K114" s="39">
+        <v>1</v>
+      </c>
+      <c r="L114" s="39">
+        <v>1</v>
+      </c>
+      <c r="M114" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="57">
+        <v>29</v>
+      </c>
+      <c r="C115" s="26">
+        <v>1</v>
+      </c>
+      <c r="D115" s="26">
+        <v>1</v>
+      </c>
+      <c r="E115" s="25">
+        <v>0</v>
+      </c>
+      <c r="F115" s="36">
+        <v>1</v>
+      </c>
+      <c r="G115" s="40">
+        <v>1</v>
+      </c>
+      <c r="H115" s="40">
+        <v>1</v>
+      </c>
+      <c r="I115" s="25">
+        <v>0</v>
+      </c>
+      <c r="J115" s="25">
+        <v>0</v>
+      </c>
+      <c r="K115" s="40">
+        <v>1</v>
+      </c>
+      <c r="L115" s="40">
+        <v>1</v>
+      </c>
+      <c r="M115" s="37">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="Q93:Q94"/>
+    <mergeCell ref="T93:T94"/>
+    <mergeCell ref="S95:S96"/>
+    <mergeCell ref="T95:T96"/>
+    <mergeCell ref="Q97:Q98"/>
+    <mergeCell ref="R97:R98"/>
+    <mergeCell ref="S97:S98"/>
+    <mergeCell ref="T97:T98"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Logicalrules-Ref.xlsx
+++ b/Logicalrules-Ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/GitHub/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E71894-C27D-594F-BE97-70572F6B5312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30AB1FE-99F6-8840-A876-5458389591C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="780" windowWidth="35200" windowHeight="21100" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
+    <workbookView xWindow="4680" yWindow="1480" windowWidth="35200" windowHeight="21100" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Interaction" sheetId="2" r:id="rId1"/>
@@ -421,9 +421,6 @@
     <t>﻿Vnd represses ind and msh in the ventral neuroectoderm, and ind represses msh in the intermediate neuroectoderm.</t>
   </si>
   <si>
-    <t>Boolean reactions have been driven based on the information on morphologies of the NBs observed in vivo around late stage 11 (according to Bossing et al., 1996). ﻿Gene expression along the A/P axis (e.g., wg, wingless; gsb, gooseberry; en, engrailed) and the dorso-ventral axis (vnd, ventral nervous system defective; ind, intermediate neuroblasts defective; msh, muscle segment homeobox; and DER, Drosophila EGF receptor) subdivide the vNR into a grid-like Cartesian coordinate system. This system provides positional information, which specifies the identities of proneural clusters. Each proneural cluster gives rise to one specific NB. For example, NB6-4 delaminates from a proneural cluster that expresses msh and engrailed. NB4-6 gives rise to glial cells exclusively.</t>
-  </si>
-  <si>
     <t>(vnd | ind | msh) &amp; (wg | gsb | en)</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>﻿Wg can also autoregulate via Gsb. Ci_act induces transcription of En, Ptc, and Wg.</t>
+  </si>
+  <si>
+    <t>Boolean functions were driven based on the information on morphologies of the NBs observed in vivo around late stage 11 (according to Bossing et al., 1996). ﻿Gene expression along the A/P axis (e.g., wg, wingless; gsb, gooseberry; en, engrailed) and the dorso-ventral axis (vnd, ventral nervous system defective; ind, intermediate neuroblasts defective; msh, muscle segment homeobox; and DER, Drosophila EGF receptor) subdivide the vNR into a grid-like Cartesian coordinate system. This system provides positional information, which specifies the identities of proneural clusters. Each proneural cluster gives rise to one specific NB. For example, NB6-4 delaminates from a proneural cluster that expresses msh and engrailed. NB4-6 gives rise to glial cells exclusively.</t>
   </si>
 </sst>
 </file>
@@ -828,20 +828,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,6 +923,18 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -944,9 +947,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1418,9 +1418,9 @@
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="51" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="7"/>
@@ -1433,9 +1433,9 @@
         <v>82</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>140</v>
+      </c>
+      <c r="D11" s="51"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1449,7 +1449,7 @@
         <v>120</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -1505,10 +1505,10 @@
       <c r="B16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="52" t="s">
         <v>109</v>
       </c>
       <c r="E16" s="7"/>
@@ -1520,8 +1520,8 @@
       <c r="B17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1534,7 +1534,7 @@
       <c r="C18" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="52" t="s">
         <v>110</v>
       </c>
       <c r="E18" s="7"/>
@@ -1549,7 +1549,7 @@
       <c r="C19" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1572,10 +1572,10 @@
       <c r="B21" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="7"/>
@@ -1585,10 +1585,10 @@
         <v>99</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+        <v>125</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2030,16 +2030,16 @@
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
       </c>
       <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
         <v>131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -2063,10 +2063,10 @@
         <v>63</v>
       </c>
       <c r="M2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N2" t="s">
         <v>133</v>
-      </c>
-      <c r="N2" t="s">
-        <v>134</v>
       </c>
       <c r="O2" t="s">
         <v>83</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
@@ -4265,7 +4265,7 @@
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -4354,37 +4354,37 @@
       </c>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C40" s="19">
-        <v>0</v>
-      </c>
-      <c r="D40" s="19">
-        <v>0</v>
-      </c>
-      <c r="E40" s="19">
-        <v>1</v>
-      </c>
-      <c r="F40" s="19">
-        <v>0</v>
-      </c>
-      <c r="G40" s="19">
-        <v>0</v>
-      </c>
-      <c r="H40" s="19">
-        <v>0</v>
-      </c>
-      <c r="I40" s="19">
-        <v>1</v>
-      </c>
-      <c r="J40" s="19">
-        <v>0</v>
-      </c>
-      <c r="K40" s="19">
-        <v>0</v>
-      </c>
-      <c r="L40" s="19">
-        <v>0</v>
-      </c>
-      <c r="M40" s="19">
+      <c r="C40" s="17">
+        <v>0</v>
+      </c>
+      <c r="D40" s="17">
+        <v>0</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17">
+        <v>0</v>
+      </c>
+      <c r="G40" s="17">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1</v>
+      </c>
+      <c r="J40" s="17">
+        <v>0</v>
+      </c>
+      <c r="K40" s="17">
+        <v>0</v>
+      </c>
+      <c r="L40" s="17">
+        <v>0</v>
+      </c>
+      <c r="M40" s="17">
         <v>0</v>
       </c>
     </row>
@@ -4433,19 +4433,19 @@
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="16">
-        <v>0</v>
-      </c>
-      <c r="G42" s="16">
-        <v>0</v>
-      </c>
-      <c r="H42" s="16">
-        <v>0</v>
-      </c>
-      <c r="I42" s="16">
-        <v>0</v>
-      </c>
-      <c r="J42" s="16">
+      <c r="F42" s="14">
+        <v>0</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14">
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
         <v>0</v>
       </c>
       <c r="K42">
@@ -4459,37 +4459,37 @@
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C43" s="18">
-        <v>0</v>
-      </c>
-      <c r="D43" s="18">
-        <v>0</v>
-      </c>
-      <c r="E43" s="18">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
-        <v>1</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1</v>
-      </c>
-      <c r="H43" s="18">
-        <v>1</v>
-      </c>
-      <c r="I43" s="18">
-        <v>0</v>
-      </c>
-      <c r="J43" s="18">
-        <v>1</v>
-      </c>
-      <c r="K43" s="18">
-        <v>0</v>
-      </c>
-      <c r="L43" s="18">
-        <v>0</v>
-      </c>
-      <c r="M43" s="18">
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <v>1</v>
+      </c>
+      <c r="H43" s="16">
+        <v>1</v>
+      </c>
+      <c r="I43" s="16">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16">
+        <v>1</v>
+      </c>
+      <c r="K43" s="16">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4503,19 +4503,19 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="16">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16">
-        <v>1</v>
-      </c>
-      <c r="H44" s="16">
-        <v>1</v>
-      </c>
-      <c r="I44" s="16">
-        <v>1</v>
-      </c>
-      <c r="J44" s="16">
+      <c r="F44" s="14">
+        <v>1</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14">
+        <v>1</v>
+      </c>
+      <c r="J44" s="14">
         <v>0</v>
       </c>
       <c r="K44">
@@ -4524,112 +4524,112 @@
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C45" s="18">
-        <v>0</v>
-      </c>
-      <c r="D45" s="18">
-        <v>0</v>
-      </c>
-      <c r="E45" s="18">
-        <v>1</v>
-      </c>
-      <c r="F45" s="18">
-        <v>1</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1</v>
-      </c>
-      <c r="H45" s="18">
-        <v>1</v>
-      </c>
-      <c r="I45" s="18">
-        <v>0</v>
-      </c>
-      <c r="J45" s="18">
-        <v>1</v>
-      </c>
-      <c r="K45" s="18">
-        <v>0</v>
-      </c>
-      <c r="L45" s="18">
-        <v>0</v>
-      </c>
-      <c r="M45" s="18">
+      <c r="C45" s="16">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1</v>
+      </c>
+      <c r="F45" s="16">
+        <v>1</v>
+      </c>
+      <c r="G45" s="16">
+        <v>1</v>
+      </c>
+      <c r="H45" s="16">
+        <v>1</v>
+      </c>
+      <c r="I45" s="16">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16">
+        <v>1</v>
+      </c>
+      <c r="K45" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16">
+        <v>0</v>
+      </c>
+      <c r="M45" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C46" s="18">
-        <v>0</v>
-      </c>
-      <c r="D46" s="18">
-        <v>0</v>
-      </c>
-      <c r="E46" s="18">
-        <v>0</v>
-      </c>
-      <c r="F46" s="18">
-        <v>1</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1</v>
-      </c>
-      <c r="H46" s="18">
-        <v>1</v>
-      </c>
-      <c r="I46" s="18">
-        <v>0</v>
-      </c>
-      <c r="J46" s="18">
-        <v>1</v>
-      </c>
-      <c r="K46" s="18">
-        <v>0</v>
-      </c>
-      <c r="L46" s="18">
-        <v>0</v>
-      </c>
-      <c r="M46" s="18">
+      <c r="C46" s="16">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16">
+        <v>1</v>
+      </c>
+      <c r="G46" s="16">
+        <v>1</v>
+      </c>
+      <c r="H46" s="16">
+        <v>1</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16">
+        <v>1</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0</v>
+      </c>
+      <c r="L46" s="16">
+        <v>0</v>
+      </c>
+      <c r="M46" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C47" s="18">
-        <v>0</v>
-      </c>
-      <c r="D47" s="18">
-        <v>1</v>
-      </c>
-      <c r="E47" s="18">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
-        <v>1</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1</v>
-      </c>
-      <c r="H47" s="18">
-        <v>1</v>
-      </c>
-      <c r="I47" s="18">
-        <v>0</v>
-      </c>
-      <c r="J47" s="18">
-        <v>1</v>
-      </c>
-      <c r="K47" s="18">
-        <v>0</v>
-      </c>
-      <c r="L47" s="18">
-        <v>0</v>
-      </c>
-      <c r="M47" s="18">
+      <c r="C47" s="16">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16">
+        <v>1</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
+        <v>1</v>
+      </c>
+      <c r="G47" s="16">
+        <v>1</v>
+      </c>
+      <c r="H47" s="16">
+        <v>1</v>
+      </c>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16">
+        <v>1</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+      <c r="L47" s="16">
+        <v>0</v>
+      </c>
+      <c r="M47" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4643,19 +4643,19 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" s="16">
-        <v>1</v>
-      </c>
-      <c r="G48" s="16">
-        <v>1</v>
-      </c>
-      <c r="H48" s="16">
-        <v>1</v>
-      </c>
-      <c r="I48" s="16">
-        <v>1</v>
-      </c>
-      <c r="J48" s="16">
+      <c r="F48" s="14">
+        <v>1</v>
+      </c>
+      <c r="G48" s="14">
+        <v>1</v>
+      </c>
+      <c r="H48" s="14">
+        <v>1</v>
+      </c>
+      <c r="I48" s="14">
+        <v>1</v>
+      </c>
+      <c r="J48" s="14">
         <v>0</v>
       </c>
       <c r="K48">
@@ -4664,112 +4664,112 @@
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" s="16">
+      <c r="M48" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C49" s="18">
-        <v>0</v>
-      </c>
-      <c r="D49" s="18">
-        <v>1</v>
-      </c>
-      <c r="E49" s="18">
-        <v>1</v>
-      </c>
-      <c r="F49" s="18">
-        <v>1</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1</v>
-      </c>
-      <c r="H49" s="18">
-        <v>1</v>
-      </c>
-      <c r="I49" s="18">
-        <v>0</v>
-      </c>
-      <c r="J49" s="18">
-        <v>1</v>
-      </c>
-      <c r="K49" s="18">
-        <v>0</v>
-      </c>
-      <c r="L49" s="18">
-        <v>0</v>
-      </c>
-      <c r="M49" s="18">
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16">
+        <v>1</v>
+      </c>
+      <c r="E49" s="16">
+        <v>1</v>
+      </c>
+      <c r="F49" s="16">
+        <v>1</v>
+      </c>
+      <c r="G49" s="16">
+        <v>1</v>
+      </c>
+      <c r="H49" s="16">
+        <v>1</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>1</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C50" s="18">
-        <v>0</v>
-      </c>
-      <c r="D50" s="18">
-        <v>1</v>
-      </c>
-      <c r="E50" s="18">
-        <v>0</v>
-      </c>
-      <c r="F50" s="18">
-        <v>1</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1</v>
-      </c>
-      <c r="H50" s="18">
-        <v>1</v>
-      </c>
-      <c r="I50" s="18">
-        <v>0</v>
-      </c>
-      <c r="J50" s="18">
-        <v>1</v>
-      </c>
-      <c r="K50" s="18">
-        <v>0</v>
-      </c>
-      <c r="L50" s="18">
-        <v>0</v>
-      </c>
-      <c r="M50" s="18">
+      <c r="C50" s="16">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>1</v>
+      </c>
+      <c r="G50" s="16">
+        <v>1</v>
+      </c>
+      <c r="H50" s="16">
+        <v>1</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="16">
+        <v>1</v>
+      </c>
+      <c r="K50" s="16">
+        <v>0</v>
+      </c>
+      <c r="L50" s="16">
+        <v>0</v>
+      </c>
+      <c r="M50" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C51" s="18">
-        <v>1</v>
-      </c>
-      <c r="D51" s="18">
-        <v>0</v>
-      </c>
-      <c r="E51" s="18">
-        <v>0</v>
-      </c>
-      <c r="F51" s="18">
-        <v>1</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1</v>
-      </c>
-      <c r="H51" s="18">
-        <v>1</v>
-      </c>
-      <c r="I51" s="18">
-        <v>0</v>
-      </c>
-      <c r="J51" s="18">
-        <v>1</v>
-      </c>
-      <c r="K51" s="18">
-        <v>0</v>
-      </c>
-      <c r="L51" s="18">
-        <v>0</v>
-      </c>
-      <c r="M51" s="18">
+      <c r="C51" s="16">
+        <v>1</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <v>1</v>
+      </c>
+      <c r="G51" s="16">
+        <v>1</v>
+      </c>
+      <c r="H51" s="16">
+        <v>1</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
+      <c r="J51" s="16">
+        <v>1</v>
+      </c>
+      <c r="K51" s="16">
+        <v>0</v>
+      </c>
+      <c r="L51" s="16">
+        <v>0</v>
+      </c>
+      <c r="M51" s="16">
         <v>1</v>
       </c>
     </row>
@@ -4804,147 +4804,147 @@
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="M52" s="16">
+      <c r="M52" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C53" s="18">
-        <v>1</v>
-      </c>
-      <c r="D53" s="18">
-        <v>0</v>
-      </c>
-      <c r="E53" s="18">
-        <v>1</v>
-      </c>
-      <c r="F53" s="18">
-        <v>1</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1</v>
-      </c>
-      <c r="H53" s="18">
-        <v>1</v>
-      </c>
-      <c r="I53" s="18">
-        <v>0</v>
-      </c>
-      <c r="J53" s="18">
-        <v>1</v>
-      </c>
-      <c r="K53" s="18">
-        <v>0</v>
-      </c>
-      <c r="L53" s="18">
-        <v>0</v>
-      </c>
-      <c r="M53" s="18">
+      <c r="C53" s="16">
+        <v>1</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16">
+        <v>1</v>
+      </c>
+      <c r="F53" s="16">
+        <v>1</v>
+      </c>
+      <c r="G53" s="16">
+        <v>1</v>
+      </c>
+      <c r="H53" s="16">
+        <v>1</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16">
+        <v>1</v>
+      </c>
+      <c r="K53" s="16">
+        <v>0</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0</v>
+      </c>
+      <c r="M53" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C54" s="18">
-        <v>1</v>
-      </c>
-      <c r="D54" s="18">
-        <v>0</v>
-      </c>
-      <c r="E54" s="18">
-        <v>0</v>
-      </c>
-      <c r="F54" s="18">
-        <v>1</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1</v>
-      </c>
-      <c r="H54" s="18">
-        <v>1</v>
-      </c>
-      <c r="I54" s="18">
-        <v>0</v>
-      </c>
-      <c r="J54" s="18">
-        <v>1</v>
-      </c>
-      <c r="K54" s="18">
-        <v>0</v>
-      </c>
-      <c r="L54" s="18">
-        <v>0</v>
-      </c>
-      <c r="M54" s="18">
+      <c r="C54" s="16">
+        <v>1</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16">
+        <v>1</v>
+      </c>
+      <c r="G54" s="16">
+        <v>1</v>
+      </c>
+      <c r="H54" s="16">
+        <v>1</v>
+      </c>
+      <c r="I54" s="16">
+        <v>0</v>
+      </c>
+      <c r="J54" s="16">
+        <v>1</v>
+      </c>
+      <c r="K54" s="16">
+        <v>0</v>
+      </c>
+      <c r="L54" s="16">
+        <v>0</v>
+      </c>
+      <c r="M54" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C55" s="18">
-        <v>1</v>
-      </c>
-      <c r="D55" s="18">
-        <v>1</v>
-      </c>
-      <c r="E55" s="18">
-        <v>0</v>
-      </c>
-      <c r="F55" s="18">
-        <v>1</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1</v>
-      </c>
-      <c r="H55" s="18">
-        <v>1</v>
-      </c>
-      <c r="I55" s="18">
-        <v>0</v>
-      </c>
-      <c r="J55" s="18">
-        <v>1</v>
-      </c>
-      <c r="K55" s="18">
-        <v>0</v>
-      </c>
-      <c r="L55" s="18">
-        <v>0</v>
-      </c>
-      <c r="M55" s="18">
+      <c r="C55" s="16">
+        <v>1</v>
+      </c>
+      <c r="D55" s="16">
+        <v>1</v>
+      </c>
+      <c r="E55" s="16">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16">
+        <v>1</v>
+      </c>
+      <c r="G55" s="16">
+        <v>1</v>
+      </c>
+      <c r="H55" s="16">
+        <v>1</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16">
+        <v>1</v>
+      </c>
+      <c r="K55" s="16">
+        <v>0</v>
+      </c>
+      <c r="L55" s="16">
+        <v>0</v>
+      </c>
+      <c r="M55" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="C56" s="19">
-        <v>1</v>
-      </c>
-      <c r="D56" s="19">
-        <v>1</v>
-      </c>
-      <c r="E56" s="19">
-        <v>1</v>
-      </c>
-      <c r="F56" s="19">
-        <v>1</v>
-      </c>
-      <c r="G56" s="19">
-        <v>1</v>
-      </c>
-      <c r="H56" s="19">
-        <v>1</v>
-      </c>
-      <c r="I56" s="19">
-        <v>1</v>
-      </c>
-      <c r="J56" s="19">
-        <v>0</v>
-      </c>
-      <c r="K56" s="19">
-        <v>0</v>
-      </c>
-      <c r="L56" s="19">
-        <v>0</v>
-      </c>
-      <c r="M56" s="19">
+      <c r="C56" s="17">
+        <v>1</v>
+      </c>
+      <c r="D56" s="17">
+        <v>1</v>
+      </c>
+      <c r="E56" s="17">
+        <v>1</v>
+      </c>
+      <c r="F56" s="17">
+        <v>1</v>
+      </c>
+      <c r="G56" s="17">
+        <v>1</v>
+      </c>
+      <c r="H56" s="17">
+        <v>1</v>
+      </c>
+      <c r="I56" s="17">
+        <v>1</v>
+      </c>
+      <c r="J56" s="17">
+        <v>0</v>
+      </c>
+      <c r="K56" s="17">
+        <v>0</v>
+      </c>
+      <c r="L56" s="17">
+        <v>0</v>
+      </c>
+      <c r="M56" s="17">
         <v>1</v>
       </c>
     </row>
@@ -4958,19 +4958,19 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" s="15">
-        <v>1</v>
-      </c>
-      <c r="G57" s="15">
-        <v>1</v>
-      </c>
-      <c r="H57" s="15">
+      <c r="F57" s="13">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13">
+        <v>1</v>
+      </c>
+      <c r="H57" s="13">
         <v>1</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="13">
         <v>1</v>
       </c>
       <c r="K57">
@@ -4979,7 +4979,7 @@
       <c r="L57">
         <v>0</v>
       </c>
-      <c r="M57" s="15">
+      <c r="M57" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4993,19 +4993,19 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58" s="15">
-        <v>1</v>
-      </c>
-      <c r="G58" s="15">
-        <v>1</v>
-      </c>
-      <c r="H58" s="15">
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13">
+        <v>1</v>
+      </c>
+      <c r="H58" s="13">
         <v>1</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="13">
         <v>1</v>
       </c>
       <c r="K58">
@@ -5014,7 +5014,7 @@
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" s="15">
+      <c r="M58" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5028,13 +5028,13 @@
       <c r="E59">
         <v>0</v>
       </c>
-      <c r="F59" s="15">
-        <v>1</v>
-      </c>
-      <c r="G59" s="17">
-        <v>1</v>
-      </c>
-      <c r="H59" s="17">
+      <c r="F59" s="13">
+        <v>1</v>
+      </c>
+      <c r="G59" s="15">
+        <v>1</v>
+      </c>
+      <c r="H59" s="15">
         <v>1</v>
       </c>
       <c r="I59">
@@ -5043,13 +5043,13 @@
       <c r="J59">
         <v>0</v>
       </c>
-      <c r="K59" s="17">
-        <v>1</v>
-      </c>
-      <c r="L59" s="17">
-        <v>1</v>
-      </c>
-      <c r="M59" s="15">
+      <c r="K59" s="15">
+        <v>1</v>
+      </c>
+      <c r="L59" s="15">
+        <v>1</v>
+      </c>
+      <c r="M59" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5063,13 +5063,13 @@
       <c r="E60">
         <v>0</v>
       </c>
-      <c r="F60" s="15">
-        <v>1</v>
-      </c>
-      <c r="G60" s="17">
-        <v>1</v>
-      </c>
-      <c r="H60" s="17">
+      <c r="F60" s="13">
+        <v>1</v>
+      </c>
+      <c r="G60" s="15">
+        <v>1</v>
+      </c>
+      <c r="H60" s="15">
         <v>1</v>
       </c>
       <c r="I60">
@@ -5078,13 +5078,13 @@
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="K60" s="17">
-        <v>1</v>
-      </c>
-      <c r="L60" s="17">
-        <v>1</v>
-      </c>
-      <c r="M60" s="15">
+      <c r="K60" s="15">
+        <v>1</v>
+      </c>
+      <c r="L60" s="15">
+        <v>1</v>
+      </c>
+      <c r="M60" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5098,13 +5098,13 @@
       <c r="E61">
         <v>0</v>
       </c>
-      <c r="F61" s="15">
-        <v>1</v>
-      </c>
-      <c r="G61" s="17">
-        <v>1</v>
-      </c>
-      <c r="H61" s="17">
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+      <c r="G61" s="15">
+        <v>1</v>
+      </c>
+      <c r="H61" s="15">
         <v>1</v>
       </c>
       <c r="I61">
@@ -5113,13 +5113,13 @@
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61" s="17">
-        <v>1</v>
-      </c>
-      <c r="L61" s="17">
-        <v>1</v>
-      </c>
-      <c r="M61" s="15">
+      <c r="K61" s="15">
+        <v>1</v>
+      </c>
+      <c r="L61" s="15">
+        <v>1</v>
+      </c>
+      <c r="M61" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5133,13 +5133,13 @@
       <c r="E62">
         <v>0</v>
       </c>
-      <c r="F62" s="15">
-        <v>1</v>
-      </c>
-      <c r="G62" s="17">
-        <v>1</v>
-      </c>
-      <c r="H62" s="17">
+      <c r="F62" s="13">
+        <v>1</v>
+      </c>
+      <c r="G62" s="15">
+        <v>1</v>
+      </c>
+      <c r="H62" s="15">
         <v>1</v>
       </c>
       <c r="I62">
@@ -5148,13 +5148,13 @@
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62" s="17">
-        <v>1</v>
-      </c>
-      <c r="L62" s="17">
-        <v>1</v>
-      </c>
-      <c r="M62" s="15">
+      <c r="K62" s="15">
+        <v>1</v>
+      </c>
+      <c r="L62" s="15">
+        <v>1</v>
+      </c>
+      <c r="M62" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5168,13 +5168,13 @@
       <c r="E63">
         <v>0</v>
       </c>
-      <c r="F63" s="15">
-        <v>1</v>
-      </c>
-      <c r="G63" s="17">
-        <v>1</v>
-      </c>
-      <c r="H63" s="17">
+      <c r="F63" s="13">
+        <v>1</v>
+      </c>
+      <c r="G63" s="15">
+        <v>1</v>
+      </c>
+      <c r="H63" s="15">
         <v>1</v>
       </c>
       <c r="I63">
@@ -5183,13 +5183,13 @@
       <c r="J63">
         <v>0</v>
       </c>
-      <c r="K63" s="17">
-        <v>1</v>
-      </c>
-      <c r="L63" s="17">
-        <v>1</v>
-      </c>
-      <c r="M63" s="15">
+      <c r="K63" s="15">
+        <v>1</v>
+      </c>
+      <c r="L63" s="15">
+        <v>1</v>
+      </c>
+      <c r="M63" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5203,13 +5203,13 @@
       <c r="E64">
         <v>0</v>
       </c>
-      <c r="F64" s="15">
-        <v>1</v>
-      </c>
-      <c r="G64" s="17">
-        <v>1</v>
-      </c>
-      <c r="H64" s="17">
+      <c r="F64" s="13">
+        <v>1</v>
+      </c>
+      <c r="G64" s="15">
+        <v>1</v>
+      </c>
+      <c r="H64" s="15">
         <v>1</v>
       </c>
       <c r="I64">
@@ -5218,13 +5218,13 @@
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64" s="17">
-        <v>1</v>
-      </c>
-      <c r="L64" s="17">
-        <v>1</v>
-      </c>
-      <c r="M64" s="15">
+      <c r="K64" s="15">
+        <v>1</v>
+      </c>
+      <c r="L64" s="15">
+        <v>1</v>
+      </c>
+      <c r="M64" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5238,13 +5238,13 @@
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65" s="15">
-        <v>1</v>
-      </c>
-      <c r="G65" s="17">
-        <v>1</v>
-      </c>
-      <c r="H65" s="17">
+      <c r="F65" s="13">
+        <v>1</v>
+      </c>
+      <c r="G65" s="15">
+        <v>1</v>
+      </c>
+      <c r="H65" s="15">
         <v>1</v>
       </c>
       <c r="I65">
@@ -5253,13 +5253,13 @@
       <c r="J65">
         <v>0</v>
       </c>
-      <c r="K65" s="17">
-        <v>1</v>
-      </c>
-      <c r="L65" s="17">
-        <v>1</v>
-      </c>
-      <c r="M65" s="15">
+      <c r="K65" s="15">
+        <v>1</v>
+      </c>
+      <c r="L65" s="15">
+        <v>1</v>
+      </c>
+      <c r="M65" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5273,13 +5273,13 @@
       <c r="E66">
         <v>0</v>
       </c>
-      <c r="F66" s="15">
-        <v>1</v>
-      </c>
-      <c r="G66" s="17">
-        <v>1</v>
-      </c>
-      <c r="H66" s="17">
+      <c r="F66" s="13">
+        <v>1</v>
+      </c>
+      <c r="G66" s="15">
+        <v>1</v>
+      </c>
+      <c r="H66" s="15">
         <v>1</v>
       </c>
       <c r="I66">
@@ -5288,13 +5288,13 @@
       <c r="J66">
         <v>0</v>
       </c>
-      <c r="K66" s="17">
-        <v>1</v>
-      </c>
-      <c r="L66" s="17">
-        <v>1</v>
-      </c>
-      <c r="M66" s="15">
+      <c r="K66" s="15">
+        <v>1</v>
+      </c>
+      <c r="L66" s="15">
+        <v>1</v>
+      </c>
+      <c r="M66" s="13">
         <v>1</v>
       </c>
       <c r="P66">
@@ -5411,19 +5411,19 @@
       <c r="R69">
         <v>0</v>
       </c>
-      <c r="S69" s="16">
-        <v>0</v>
-      </c>
-      <c r="T69" s="16">
-        <v>0</v>
-      </c>
-      <c r="U69" s="16">
-        <v>0</v>
-      </c>
-      <c r="V69" s="16">
-        <v>0</v>
-      </c>
-      <c r="W69" s="16">
+      <c r="S69" s="14">
+        <v>0</v>
+      </c>
+      <c r="T69" s="14">
+        <v>0</v>
+      </c>
+      <c r="U69" s="14">
+        <v>0</v>
+      </c>
+      <c r="V69" s="14">
+        <v>0</v>
+      </c>
+      <c r="W69" s="14">
         <v>0</v>
       </c>
       <c r="X69">
@@ -5446,19 +5446,19 @@
       <c r="E70">
         <v>0</v>
       </c>
-      <c r="F70" s="16">
-        <v>1</v>
-      </c>
-      <c r="G70" s="16">
-        <v>1</v>
-      </c>
-      <c r="H70" s="16">
-        <v>1</v>
-      </c>
-      <c r="I70" s="16">
-        <v>0</v>
-      </c>
-      <c r="J70" s="16">
+      <c r="F70" s="14">
+        <v>1</v>
+      </c>
+      <c r="G70" s="14">
+        <v>1</v>
+      </c>
+      <c r="H70" s="14">
+        <v>1</v>
+      </c>
+      <c r="I70" s="14">
+        <v>0</v>
+      </c>
+      <c r="J70" s="14">
         <v>1</v>
       </c>
       <c r="K70">
@@ -5467,7 +5467,7 @@
       <c r="L70">
         <v>0</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M70" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5481,19 +5481,19 @@
       <c r="E71">
         <v>1</v>
       </c>
-      <c r="F71" s="16">
-        <v>1</v>
-      </c>
-      <c r="G71" s="16">
-        <v>1</v>
-      </c>
-      <c r="H71" s="16">
-        <v>1</v>
-      </c>
-      <c r="I71" s="16">
-        <v>0</v>
-      </c>
-      <c r="J71" s="16">
+      <c r="F71" s="14">
+        <v>1</v>
+      </c>
+      <c r="G71" s="14">
+        <v>1</v>
+      </c>
+      <c r="H71" s="14">
+        <v>1</v>
+      </c>
+      <c r="I71" s="14">
+        <v>0</v>
+      </c>
+      <c r="J71" s="14">
         <v>1</v>
       </c>
       <c r="K71">
@@ -5502,7 +5502,7 @@
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" s="16">
+      <c r="M71" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5516,19 +5516,19 @@
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" s="16">
-        <v>1</v>
-      </c>
-      <c r="G72" s="16">
-        <v>1</v>
-      </c>
-      <c r="H72" s="16">
-        <v>1</v>
-      </c>
-      <c r="I72" s="16">
-        <v>0</v>
-      </c>
-      <c r="J72" s="16">
+      <c r="F72" s="14">
+        <v>1</v>
+      </c>
+      <c r="G72" s="14">
+        <v>1</v>
+      </c>
+      <c r="H72" s="14">
+        <v>1</v>
+      </c>
+      <c r="I72" s="14">
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
         <v>1</v>
       </c>
       <c r="K72">
@@ -5537,7 +5537,7 @@
       <c r="L72">
         <v>0</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M72" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5551,19 +5551,19 @@
       <c r="E73">
         <v>0</v>
       </c>
-      <c r="F73" s="16">
-        <v>1</v>
-      </c>
-      <c r="G73" s="16">
-        <v>1</v>
-      </c>
-      <c r="H73" s="16">
-        <v>1</v>
-      </c>
-      <c r="I73" s="16">
-        <v>0</v>
-      </c>
-      <c r="J73" s="16">
+      <c r="F73" s="14">
+        <v>1</v>
+      </c>
+      <c r="G73" s="14">
+        <v>1</v>
+      </c>
+      <c r="H73" s="14">
+        <v>1</v>
+      </c>
+      <c r="I73" s="14">
+        <v>0</v>
+      </c>
+      <c r="J73" s="14">
         <v>1</v>
       </c>
       <c r="K73">
@@ -5572,77 +5572,77 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" s="16">
+      <c r="M73" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C74" s="18">
-        <v>0</v>
-      </c>
-      <c r="D74" s="18">
-        <v>1</v>
-      </c>
-      <c r="E74" s="18">
-        <v>1</v>
-      </c>
-      <c r="F74" s="18">
-        <v>1</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1</v>
-      </c>
-      <c r="H74" s="18">
-        <v>1</v>
-      </c>
-      <c r="I74" s="18">
-        <v>0</v>
-      </c>
-      <c r="J74" s="18">
-        <v>1</v>
-      </c>
-      <c r="K74" s="18">
-        <v>0</v>
-      </c>
-      <c r="L74" s="18">
-        <v>0</v>
-      </c>
-      <c r="M74" s="18">
+      <c r="C74" s="16">
+        <v>0</v>
+      </c>
+      <c r="D74" s="16">
+        <v>1</v>
+      </c>
+      <c r="E74" s="16">
+        <v>1</v>
+      </c>
+      <c r="F74" s="16">
+        <v>1</v>
+      </c>
+      <c r="G74" s="16">
+        <v>1</v>
+      </c>
+      <c r="H74" s="16">
+        <v>1</v>
+      </c>
+      <c r="I74" s="16">
+        <v>0</v>
+      </c>
+      <c r="J74" s="16">
+        <v>1</v>
+      </c>
+      <c r="K74" s="16">
+        <v>0</v>
+      </c>
+      <c r="L74" s="16">
+        <v>0</v>
+      </c>
+      <c r="M74" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C75" s="18">
-        <v>0</v>
-      </c>
-      <c r="D75" s="18">
-        <v>1</v>
-      </c>
-      <c r="E75" s="18">
-        <v>0</v>
-      </c>
-      <c r="F75" s="18">
-        <v>1</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1</v>
-      </c>
-      <c r="H75" s="18">
-        <v>1</v>
-      </c>
-      <c r="I75" s="18">
-        <v>0</v>
-      </c>
-      <c r="J75" s="18">
-        <v>1</v>
-      </c>
-      <c r="K75" s="18">
-        <v>0</v>
-      </c>
-      <c r="L75" s="18">
-        <v>0</v>
-      </c>
-      <c r="M75" s="18">
+      <c r="C75" s="16">
+        <v>0</v>
+      </c>
+      <c r="D75" s="16">
+        <v>1</v>
+      </c>
+      <c r="E75" s="16">
+        <v>0</v>
+      </c>
+      <c r="F75" s="16">
+        <v>1</v>
+      </c>
+      <c r="G75" s="16">
+        <v>1</v>
+      </c>
+      <c r="H75" s="16">
+        <v>1</v>
+      </c>
+      <c r="I75" s="16">
+        <v>0</v>
+      </c>
+      <c r="J75" s="16">
+        <v>1</v>
+      </c>
+      <c r="K75" s="16">
+        <v>0</v>
+      </c>
+      <c r="L75" s="16">
+        <v>0</v>
+      </c>
+      <c r="M75" s="16">
         <v>1</v>
       </c>
       <c r="O75">
@@ -5680,37 +5680,37 @@
       </c>
     </row>
     <row r="76" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C76" s="18">
-        <v>1</v>
-      </c>
-      <c r="D76" s="18">
-        <v>0</v>
-      </c>
-      <c r="E76" s="18">
-        <v>0</v>
-      </c>
-      <c r="F76" s="18">
-        <v>1</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1</v>
-      </c>
-      <c r="H76" s="18">
-        <v>1</v>
-      </c>
-      <c r="I76" s="18">
-        <v>0</v>
-      </c>
-      <c r="J76" s="18">
-        <v>1</v>
-      </c>
-      <c r="K76" s="18">
-        <v>0</v>
-      </c>
-      <c r="L76" s="18">
-        <v>0</v>
-      </c>
-      <c r="M76" s="18">
+      <c r="C76" s="16">
+        <v>1</v>
+      </c>
+      <c r="D76" s="16">
+        <v>0</v>
+      </c>
+      <c r="E76" s="16">
+        <v>0</v>
+      </c>
+      <c r="F76" s="16">
+        <v>1</v>
+      </c>
+      <c r="G76" s="16">
+        <v>1</v>
+      </c>
+      <c r="H76" s="16">
+        <v>1</v>
+      </c>
+      <c r="I76" s="16">
+        <v>0</v>
+      </c>
+      <c r="J76" s="16">
+        <v>1</v>
+      </c>
+      <c r="K76" s="16">
+        <v>0</v>
+      </c>
+      <c r="L76" s="16">
+        <v>0</v>
+      </c>
+      <c r="M76" s="16">
         <v>1</v>
       </c>
       <c r="O76">
@@ -5722,19 +5722,19 @@
       <c r="Q76">
         <v>1</v>
       </c>
-      <c r="R76" s="16">
-        <v>1</v>
-      </c>
-      <c r="S76" s="16">
-        <v>1</v>
-      </c>
-      <c r="T76" s="16">
-        <v>1</v>
-      </c>
-      <c r="U76" s="16">
-        <v>1</v>
-      </c>
-      <c r="V76" s="16">
+      <c r="R76" s="14">
+        <v>1</v>
+      </c>
+      <c r="S76" s="14">
+        <v>1</v>
+      </c>
+      <c r="T76" s="14">
+        <v>1</v>
+      </c>
+      <c r="U76" s="14">
+        <v>1</v>
+      </c>
+      <c r="V76" s="14">
         <v>0</v>
       </c>
       <c r="W76">
@@ -5743,7 +5743,7 @@
       <c r="X76">
         <v>0</v>
       </c>
-      <c r="Y76" s="16">
+      <c r="Y76" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5778,7 +5778,7 @@
       <c r="L77">
         <v>0</v>
       </c>
-      <c r="M77" s="16">
+      <c r="M77" s="14">
         <v>1</v>
       </c>
       <c r="O77">
@@ -5790,19 +5790,19 @@
       <c r="Q77">
         <v>1</v>
       </c>
-      <c r="R77" s="16">
-        <v>1</v>
-      </c>
-      <c r="S77" s="16">
-        <v>1</v>
-      </c>
-      <c r="T77" s="16">
-        <v>1</v>
-      </c>
-      <c r="U77" s="16">
-        <v>1</v>
-      </c>
-      <c r="V77" s="16">
+      <c r="R77" s="14">
+        <v>1</v>
+      </c>
+      <c r="S77" s="14">
+        <v>1</v>
+      </c>
+      <c r="T77" s="14">
+        <v>1</v>
+      </c>
+      <c r="U77" s="14">
+        <v>1</v>
+      </c>
+      <c r="V77" s="14">
         <v>0</v>
       </c>
       <c r="W77">
@@ -5811,7 +5811,7 @@
       <c r="X77">
         <v>0</v>
       </c>
-      <c r="Y77" s="16">
+      <c r="Y77" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5846,7 +5846,7 @@
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78" s="16">
+      <c r="M78" s="14">
         <v>1</v>
       </c>
       <c r="O78">
@@ -5879,7 +5879,7 @@
       <c r="X78">
         <v>0</v>
       </c>
-      <c r="Y78" s="16">
+      <c r="Y78" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       <c r="L79">
         <v>0</v>
       </c>
-      <c r="M79" s="16">
+      <c r="M79" s="14">
         <v>1</v>
       </c>
       <c r="O79">
@@ -5947,1243 +5947,1243 @@
       <c r="X79">
         <v>0</v>
       </c>
-      <c r="Y79" s="16">
+      <c r="Y79" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
     </row>
     <row r="86" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D86" s="42" t="s">
+      <c r="C86" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E86" s="42" t="s">
+      <c r="E86" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F86" s="42" t="s">
+      <c r="F86" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="G86" s="42" t="s">
+      <c r="G86" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H86" s="42" t="s">
+      <c r="H86" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="I86" s="42" t="s">
+      <c r="I86" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="J86" s="42" t="s">
+      <c r="J86" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K86" s="42" t="s">
+      <c r="K86" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L86" s="42" t="s">
+      <c r="L86" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="M86" s="43" t="s">
+      <c r="M86" s="40" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B87" s="55">
-        <v>1</v>
-      </c>
-      <c r="C87" s="22">
-        <v>0</v>
-      </c>
-      <c r="D87" s="22">
-        <v>0</v>
-      </c>
-      <c r="E87" s="22">
-        <v>0</v>
-      </c>
-      <c r="F87" s="22">
-        <v>0</v>
-      </c>
-      <c r="G87" s="22">
-        <v>0</v>
-      </c>
-      <c r="H87" s="22">
-        <v>0</v>
-      </c>
-      <c r="I87" s="22">
-        <v>0</v>
-      </c>
-      <c r="J87" s="22">
-        <v>0</v>
-      </c>
-      <c r="K87" s="22">
-        <v>1</v>
-      </c>
-      <c r="L87" s="22">
-        <v>0</v>
-      </c>
-      <c r="M87" s="23">
+      <c r="B87" s="48">
+        <v>1</v>
+      </c>
+      <c r="C87" s="19">
+        <v>0</v>
+      </c>
+      <c r="D87" s="19">
+        <v>0</v>
+      </c>
+      <c r="E87" s="19">
+        <v>0</v>
+      </c>
+      <c r="F87" s="19">
+        <v>0</v>
+      </c>
+      <c r="G87" s="19">
+        <v>0</v>
+      </c>
+      <c r="H87" s="19">
+        <v>0</v>
+      </c>
+      <c r="I87" s="19">
+        <v>0</v>
+      </c>
+      <c r="J87" s="19">
+        <v>0</v>
+      </c>
+      <c r="K87" s="19">
+        <v>1</v>
+      </c>
+      <c r="L87" s="19">
+        <v>0</v>
+      </c>
+      <c r="M87" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B88" s="56">
+      <c r="B88" s="49">
         <v>2</v>
       </c>
-      <c r="C88" s="22">
-        <v>0</v>
-      </c>
-      <c r="D88" s="22">
-        <v>0</v>
-      </c>
-      <c r="E88" s="22">
-        <v>0</v>
-      </c>
-      <c r="F88" s="22">
-        <v>0</v>
-      </c>
-      <c r="G88" s="22">
-        <v>0</v>
-      </c>
-      <c r="H88" s="22">
-        <v>0</v>
-      </c>
-      <c r="I88" s="22">
-        <v>0</v>
-      </c>
-      <c r="J88" s="22">
-        <v>0</v>
-      </c>
-      <c r="K88" s="22">
-        <v>1</v>
-      </c>
-      <c r="L88" s="22">
-        <v>0</v>
-      </c>
-      <c r="M88" s="23">
+      <c r="C88" s="19">
+        <v>0</v>
+      </c>
+      <c r="D88" s="19">
+        <v>0</v>
+      </c>
+      <c r="E88" s="19">
+        <v>0</v>
+      </c>
+      <c r="F88" s="19">
+        <v>0</v>
+      </c>
+      <c r="G88" s="19">
+        <v>0</v>
+      </c>
+      <c r="H88" s="19">
+        <v>0</v>
+      </c>
+      <c r="I88" s="19">
+        <v>0</v>
+      </c>
+      <c r="J88" s="19">
+        <v>0</v>
+      </c>
+      <c r="K88" s="19">
+        <v>1</v>
+      </c>
+      <c r="L88" s="19">
+        <v>0</v>
+      </c>
+      <c r="M88" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B89" s="56">
+      <c r="B89" s="49">
         <v>3</v>
       </c>
-      <c r="C89" s="22">
-        <v>0</v>
-      </c>
-      <c r="D89" s="22">
-        <v>0</v>
-      </c>
-      <c r="E89" s="22">
-        <v>0</v>
-      </c>
-      <c r="F89" s="22">
-        <v>0</v>
-      </c>
-      <c r="G89" s="22">
-        <v>0</v>
-      </c>
-      <c r="H89" s="22">
-        <v>0</v>
-      </c>
-      <c r="I89" s="22">
-        <v>0</v>
-      </c>
-      <c r="J89" s="22">
-        <v>0</v>
-      </c>
-      <c r="K89" s="22">
-        <v>1</v>
-      </c>
-      <c r="L89" s="22">
-        <v>0</v>
-      </c>
-      <c r="M89" s="23">
+      <c r="C89" s="19">
+        <v>0</v>
+      </c>
+      <c r="D89" s="19">
+        <v>0</v>
+      </c>
+      <c r="E89" s="19">
+        <v>0</v>
+      </c>
+      <c r="F89" s="19">
+        <v>0</v>
+      </c>
+      <c r="G89" s="19">
+        <v>0</v>
+      </c>
+      <c r="H89" s="19">
+        <v>0</v>
+      </c>
+      <c r="I89" s="19">
+        <v>0</v>
+      </c>
+      <c r="J89" s="19">
+        <v>0</v>
+      </c>
+      <c r="K89" s="19">
+        <v>1</v>
+      </c>
+      <c r="L89" s="19">
+        <v>0</v>
+      </c>
+      <c r="M89" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B90" s="56">
+      <c r="B90" s="49">
         <v>4</v>
       </c>
-      <c r="C90" s="22">
-        <v>0</v>
-      </c>
-      <c r="D90" s="22">
-        <v>0</v>
-      </c>
-      <c r="E90" s="22">
-        <v>0</v>
-      </c>
-      <c r="F90" s="24">
-        <v>0</v>
-      </c>
-      <c r="G90" s="24">
-        <v>0</v>
-      </c>
-      <c r="H90" s="24">
-        <v>0</v>
-      </c>
-      <c r="I90" s="24">
-        <v>0</v>
-      </c>
-      <c r="J90" s="24">
-        <v>0</v>
-      </c>
-      <c r="K90" s="22">
-        <v>1</v>
-      </c>
-      <c r="L90" s="22">
-        <v>0</v>
-      </c>
-      <c r="M90" s="23">
+      <c r="C90" s="19">
+        <v>0</v>
+      </c>
+      <c r="D90" s="19">
+        <v>0</v>
+      </c>
+      <c r="E90" s="19">
+        <v>0</v>
+      </c>
+      <c r="F90" s="21">
+        <v>0</v>
+      </c>
+      <c r="G90" s="21">
+        <v>0</v>
+      </c>
+      <c r="H90" s="21">
+        <v>0</v>
+      </c>
+      <c r="I90" s="21">
+        <v>0</v>
+      </c>
+      <c r="J90" s="21">
+        <v>0</v>
+      </c>
+      <c r="K90" s="19">
+        <v>1</v>
+      </c>
+      <c r="L90" s="19">
+        <v>0</v>
+      </c>
+      <c r="M90" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="56">
+      <c r="B91" s="49">
         <v>5</v>
       </c>
-      <c r="C91" s="25">
-        <v>0</v>
-      </c>
-      <c r="D91" s="25">
-        <v>0</v>
-      </c>
-      <c r="E91" s="26">
-        <v>1</v>
-      </c>
-      <c r="F91" s="25">
-        <v>0</v>
-      </c>
-      <c r="G91" s="25">
-        <v>0</v>
-      </c>
-      <c r="H91" s="25">
-        <v>0</v>
-      </c>
-      <c r="I91" s="27">
-        <v>1</v>
-      </c>
-      <c r="J91" s="25">
-        <v>0</v>
-      </c>
-      <c r="K91" s="25">
-        <v>0</v>
-      </c>
-      <c r="L91" s="25">
-        <v>0</v>
-      </c>
-      <c r="M91" s="28">
+      <c r="C91" s="22">
+        <v>0</v>
+      </c>
+      <c r="D91" s="22">
+        <v>0</v>
+      </c>
+      <c r="E91" s="23">
+        <v>1</v>
+      </c>
+      <c r="F91" s="22">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22">
+        <v>0</v>
+      </c>
+      <c r="H91" s="22">
+        <v>0</v>
+      </c>
+      <c r="I91" s="24">
+        <v>1</v>
+      </c>
+      <c r="J91" s="22">
+        <v>0</v>
+      </c>
+      <c r="K91" s="22">
+        <v>0</v>
+      </c>
+      <c r="L91" s="22">
+        <v>0</v>
+      </c>
+      <c r="M91" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B92" s="56">
+      <c r="B92" s="49">
         <v>6</v>
       </c>
-      <c r="C92" s="21">
-        <v>0</v>
-      </c>
-      <c r="D92" s="21">
-        <v>0</v>
-      </c>
-      <c r="E92" s="29">
-        <v>1</v>
-      </c>
-      <c r="F92" s="30">
-        <v>1</v>
-      </c>
-      <c r="G92" s="30">
-        <v>1</v>
-      </c>
-      <c r="H92" s="30">
-        <v>1</v>
-      </c>
-      <c r="I92" s="30">
-        <v>1</v>
-      </c>
-      <c r="J92" s="31">
-        <v>0</v>
-      </c>
-      <c r="K92" s="21">
-        <v>0</v>
-      </c>
-      <c r="L92" s="21">
-        <v>0</v>
-      </c>
-      <c r="M92" s="32">
-        <v>1</v>
-      </c>
-      <c r="P92" s="44" t="s">
+      <c r="C92" s="18">
+        <v>0</v>
+      </c>
+      <c r="D92" s="18">
+        <v>0</v>
+      </c>
+      <c r="E92" s="26">
+        <v>1</v>
+      </c>
+      <c r="F92" s="27">
+        <v>1</v>
+      </c>
+      <c r="G92" s="27">
+        <v>1</v>
+      </c>
+      <c r="H92" s="27">
+        <v>1</v>
+      </c>
+      <c r="I92" s="27">
+        <v>1</v>
+      </c>
+      <c r="J92" s="28">
+        <v>0</v>
+      </c>
+      <c r="K92" s="18">
+        <v>0</v>
+      </c>
+      <c r="L92" s="18">
+        <v>0</v>
+      </c>
+      <c r="M92" s="29">
+        <v>1</v>
+      </c>
+      <c r="P92" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q92" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="R92" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="S92" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B93" s="49">
+        <v>7</v>
+      </c>
+      <c r="C93" s="19">
+        <v>0</v>
+      </c>
+      <c r="D93" s="30">
+        <v>1</v>
+      </c>
+      <c r="E93" s="30">
+        <v>1</v>
+      </c>
+      <c r="F93" s="31">
+        <v>1</v>
+      </c>
+      <c r="G93" s="31">
+        <v>1</v>
+      </c>
+      <c r="H93" s="31">
+        <v>1</v>
+      </c>
+      <c r="I93" s="31">
+        <v>1</v>
+      </c>
+      <c r="J93" s="21">
+        <v>0</v>
+      </c>
+      <c r="K93" s="19">
+        <v>0</v>
+      </c>
+      <c r="L93" s="19">
+        <v>0</v>
+      </c>
+      <c r="M93" s="32">
+        <v>1</v>
+      </c>
+      <c r="P93" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="Q92" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="R92" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="S92" s="44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B93" s="56">
-        <v>7</v>
-      </c>
-      <c r="C93" s="22">
-        <v>0</v>
-      </c>
-      <c r="D93" s="33">
-        <v>1</v>
-      </c>
-      <c r="E93" s="33">
-        <v>1</v>
-      </c>
-      <c r="F93" s="34">
-        <v>1</v>
-      </c>
-      <c r="G93" s="34">
-        <v>1</v>
-      </c>
-      <c r="H93" s="34">
-        <v>1</v>
-      </c>
-      <c r="I93" s="34">
-        <v>1</v>
-      </c>
-      <c r="J93" s="24">
-        <v>0</v>
-      </c>
-      <c r="K93" s="22">
-        <v>0</v>
-      </c>
-      <c r="L93" s="22">
-        <v>0</v>
-      </c>
-      <c r="M93" s="35">
-        <v>1</v>
-      </c>
-      <c r="P93" s="45" t="s">
+      <c r="Q93" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="Q93" s="51" t="s">
+      <c r="R93" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="R93" s="45" t="s">
+      <c r="S93" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="T93" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B94" s="49">
+        <v>8</v>
+      </c>
+      <c r="C94" s="30">
+        <v>1</v>
+      </c>
+      <c r="D94" s="19">
+        <v>0</v>
+      </c>
+      <c r="E94" s="30">
+        <v>1</v>
+      </c>
+      <c r="F94" s="31">
+        <v>1</v>
+      </c>
+      <c r="G94" s="31">
+        <v>1</v>
+      </c>
+      <c r="H94" s="31">
+        <v>1</v>
+      </c>
+      <c r="I94" s="31">
+        <v>1</v>
+      </c>
+      <c r="J94" s="19">
+        <v>0</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0</v>
+      </c>
+      <c r="L94" s="19">
+        <v>0</v>
+      </c>
+      <c r="M94" s="32">
+        <v>1</v>
+      </c>
+      <c r="P94" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="S93" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="T93" s="53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B94" s="56">
-        <v>8</v>
-      </c>
-      <c r="C94" s="33">
-        <v>1</v>
-      </c>
-      <c r="D94" s="22">
-        <v>0</v>
-      </c>
-      <c r="E94" s="33">
-        <v>1</v>
-      </c>
-      <c r="F94" s="34">
-        <v>1</v>
-      </c>
-      <c r="G94" s="34">
-        <v>1</v>
-      </c>
-      <c r="H94" s="34">
-        <v>1</v>
-      </c>
-      <c r="I94" s="34">
-        <v>1</v>
-      </c>
-      <c r="J94" s="22">
-        <v>0</v>
-      </c>
-      <c r="K94" s="22">
-        <v>0</v>
-      </c>
-      <c r="L94" s="22">
-        <v>0</v>
-      </c>
-      <c r="M94" s="35">
-        <v>1</v>
-      </c>
-      <c r="P94" s="48" t="s">
+      <c r="Q94" s="55"/>
+      <c r="R94" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="Q94" s="52"/>
-      <c r="R94" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="S94" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="T94" s="54"/>
+      <c r="S94" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="T94" s="57"/>
     </row>
     <row r="95" spans="2:20" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="56">
+      <c r="B95" s="49">
         <v>9</v>
       </c>
-      <c r="C95" s="26">
-        <v>1</v>
-      </c>
-      <c r="D95" s="26">
-        <v>1</v>
-      </c>
-      <c r="E95" s="26">
-        <v>1</v>
-      </c>
-      <c r="F95" s="36">
-        <v>1</v>
-      </c>
-      <c r="G95" s="36">
-        <v>1</v>
-      </c>
-      <c r="H95" s="36">
-        <v>1</v>
-      </c>
-      <c r="I95" s="36">
-        <v>1</v>
-      </c>
-      <c r="J95" s="25">
-        <v>0</v>
-      </c>
-      <c r="K95" s="25">
-        <v>0</v>
-      </c>
-      <c r="L95" s="25">
-        <v>0</v>
-      </c>
-      <c r="M95" s="37">
-        <v>1</v>
-      </c>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="46"/>
-      <c r="R95" s="46"/>
-      <c r="S95" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="T95" s="53" t="s">
+      <c r="C95" s="23">
+        <v>1</v>
+      </c>
+      <c r="D95" s="23">
+        <v>1</v>
+      </c>
+      <c r="E95" s="23">
+        <v>1</v>
+      </c>
+      <c r="F95" s="33">
+        <v>1</v>
+      </c>
+      <c r="G95" s="33">
+        <v>1</v>
+      </c>
+      <c r="H95" s="33">
+        <v>1</v>
+      </c>
+      <c r="I95" s="33">
+        <v>1</v>
+      </c>
+      <c r="J95" s="22">
+        <v>0</v>
+      </c>
+      <c r="K95" s="22">
+        <v>0</v>
+      </c>
+      <c r="L95" s="22">
+        <v>0</v>
+      </c>
+      <c r="M95" s="34">
+        <v>1</v>
+      </c>
+      <c r="P95" s="43"/>
+      <c r="Q95" s="43"/>
+      <c r="R95" s="43"/>
+      <c r="S95" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="T95" s="56" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B96" s="56">
+      <c r="B96" s="49">
         <v>10</v>
       </c>
-      <c r="C96" s="21">
-        <v>0</v>
-      </c>
-      <c r="D96" s="21">
-        <v>0</v>
-      </c>
-      <c r="E96" s="21">
-        <v>0</v>
-      </c>
-      <c r="F96" s="30">
-        <v>1</v>
-      </c>
-      <c r="G96" s="30">
-        <v>1</v>
-      </c>
-      <c r="H96" s="30">
-        <v>1</v>
-      </c>
-      <c r="I96" s="31">
-        <v>0</v>
-      </c>
-      <c r="J96" s="30">
-        <v>1</v>
-      </c>
-      <c r="K96" s="21">
-        <v>0</v>
-      </c>
-      <c r="L96" s="21">
-        <v>0</v>
-      </c>
-      <c r="M96" s="32">
-        <v>1</v>
-      </c>
-      <c r="P96" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q96" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="R96" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="S96" s="52"/>
-      <c r="T96" s="54"/>
+      <c r="C96" s="18">
+        <v>0</v>
+      </c>
+      <c r="D96" s="18">
+        <v>0</v>
+      </c>
+      <c r="E96" s="18">
+        <v>0</v>
+      </c>
+      <c r="F96" s="27">
+        <v>1</v>
+      </c>
+      <c r="G96" s="27">
+        <v>1</v>
+      </c>
+      <c r="H96" s="27">
+        <v>1</v>
+      </c>
+      <c r="I96" s="28">
+        <v>0</v>
+      </c>
+      <c r="J96" s="27">
+        <v>1</v>
+      </c>
+      <c r="K96" s="18">
+        <v>0</v>
+      </c>
+      <c r="L96" s="18">
+        <v>0</v>
+      </c>
+      <c r="M96" s="29">
+        <v>1</v>
+      </c>
+      <c r="P96" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q96" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="R96" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="S96" s="55"/>
+      <c r="T96" s="57"/>
     </row>
     <row r="97" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B97" s="56">
+      <c r="B97" s="49">
         <v>11</v>
       </c>
-      <c r="C97" s="22">
-        <v>0</v>
-      </c>
-      <c r="D97" s="22">
-        <v>0</v>
-      </c>
-      <c r="E97" s="33">
-        <v>1</v>
-      </c>
-      <c r="F97" s="34">
-        <v>1</v>
-      </c>
-      <c r="G97" s="34">
-        <v>1</v>
-      </c>
-      <c r="H97" s="34">
-        <v>1</v>
-      </c>
-      <c r="I97" s="24">
-        <v>0</v>
-      </c>
-      <c r="J97" s="34">
-        <v>1</v>
-      </c>
-      <c r="K97" s="22">
-        <v>0</v>
-      </c>
-      <c r="L97" s="22">
-        <v>0</v>
-      </c>
-      <c r="M97" s="35">
-        <v>1</v>
-      </c>
-      <c r="P97" s="45" t="s">
+      <c r="C97" s="19">
+        <v>0</v>
+      </c>
+      <c r="D97" s="19">
+        <v>0</v>
+      </c>
+      <c r="E97" s="30">
+        <v>1</v>
+      </c>
+      <c r="F97" s="31">
+        <v>1</v>
+      </c>
+      <c r="G97" s="31">
+        <v>1</v>
+      </c>
+      <c r="H97" s="31">
+        <v>1</v>
+      </c>
+      <c r="I97" s="21">
+        <v>0</v>
+      </c>
+      <c r="J97" s="31">
+        <v>1</v>
+      </c>
+      <c r="K97" s="19">
+        <v>0</v>
+      </c>
+      <c r="L97" s="19">
+        <v>0</v>
+      </c>
+      <c r="M97" s="32">
+        <v>1</v>
+      </c>
+      <c r="P97" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q97" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="R97" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="Q97" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="R97" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="S97" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="T97" s="53" t="s">
+      <c r="S97" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="T97" s="56" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B98" s="56">
+      <c r="B98" s="49">
         <v>12</v>
       </c>
-      <c r="C98" s="22">
-        <v>0</v>
-      </c>
-      <c r="D98" s="22">
-        <v>0</v>
-      </c>
-      <c r="E98" s="22">
-        <v>0</v>
-      </c>
-      <c r="F98" s="34">
-        <v>1</v>
-      </c>
-      <c r="G98" s="34">
-        <v>1</v>
-      </c>
-      <c r="H98" s="34">
-        <v>1</v>
-      </c>
-      <c r="I98" s="24">
-        <v>0</v>
-      </c>
-      <c r="J98" s="34">
-        <v>1</v>
-      </c>
-      <c r="K98" s="22">
-        <v>0</v>
-      </c>
-      <c r="L98" s="22">
-        <v>0</v>
-      </c>
-      <c r="M98" s="35">
-        <v>1</v>
-      </c>
-      <c r="P98" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q98" s="52"/>
-      <c r="R98" s="52"/>
-      <c r="S98" s="52"/>
-      <c r="T98" s="54"/>
+      <c r="C98" s="19">
+        <v>0</v>
+      </c>
+      <c r="D98" s="19">
+        <v>0</v>
+      </c>
+      <c r="E98" s="19">
+        <v>0</v>
+      </c>
+      <c r="F98" s="31">
+        <v>1</v>
+      </c>
+      <c r="G98" s="31">
+        <v>1</v>
+      </c>
+      <c r="H98" s="31">
+        <v>1</v>
+      </c>
+      <c r="I98" s="21">
+        <v>0</v>
+      </c>
+      <c r="J98" s="31">
+        <v>1</v>
+      </c>
+      <c r="K98" s="19">
+        <v>0</v>
+      </c>
+      <c r="L98" s="19">
+        <v>0</v>
+      </c>
+      <c r="M98" s="32">
+        <v>1</v>
+      </c>
+      <c r="P98" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q98" s="55"/>
+      <c r="R98" s="55"/>
+      <c r="S98" s="55"/>
+      <c r="T98" s="57"/>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B99" s="56">
+      <c r="B99" s="49">
         <v>13</v>
       </c>
-      <c r="C99" s="22">
-        <v>0</v>
-      </c>
-      <c r="D99" s="33">
-        <v>1</v>
-      </c>
-      <c r="E99" s="22">
-        <v>0</v>
-      </c>
-      <c r="F99" s="34">
-        <v>1</v>
-      </c>
-      <c r="G99" s="34">
-        <v>1</v>
-      </c>
-      <c r="H99" s="34">
-        <v>1</v>
-      </c>
-      <c r="I99" s="24">
-        <v>0</v>
-      </c>
-      <c r="J99" s="34">
-        <v>1</v>
-      </c>
-      <c r="K99" s="22">
-        <v>0</v>
-      </c>
-      <c r="L99" s="22">
-        <v>0</v>
-      </c>
-      <c r="M99" s="35">
+      <c r="C99" s="19">
+        <v>0</v>
+      </c>
+      <c r="D99" s="30">
+        <v>1</v>
+      </c>
+      <c r="E99" s="19">
+        <v>0</v>
+      </c>
+      <c r="F99" s="31">
+        <v>1</v>
+      </c>
+      <c r="G99" s="31">
+        <v>1</v>
+      </c>
+      <c r="H99" s="31">
+        <v>1</v>
+      </c>
+      <c r="I99" s="21">
+        <v>0</v>
+      </c>
+      <c r="J99" s="31">
+        <v>1</v>
+      </c>
+      <c r="K99" s="19">
+        <v>0</v>
+      </c>
+      <c r="L99" s="19">
+        <v>0</v>
+      </c>
+      <c r="M99" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B100" s="56">
+      <c r="B100" s="49">
         <v>14</v>
       </c>
-      <c r="C100" s="24">
-        <v>0</v>
-      </c>
-      <c r="D100" s="33">
-        <v>1</v>
-      </c>
-      <c r="E100" s="33">
-        <v>1</v>
-      </c>
-      <c r="F100" s="34">
-        <v>1</v>
-      </c>
-      <c r="G100" s="34">
-        <v>1</v>
-      </c>
-      <c r="H100" s="34">
-        <v>1</v>
-      </c>
-      <c r="I100" s="24">
-        <v>0</v>
-      </c>
-      <c r="J100" s="34">
-        <v>1</v>
-      </c>
-      <c r="K100" s="24">
-        <v>0</v>
-      </c>
-      <c r="L100" s="24">
-        <v>0</v>
-      </c>
-      <c r="M100" s="35">
+      <c r="C100" s="21">
+        <v>0</v>
+      </c>
+      <c r="D100" s="30">
+        <v>1</v>
+      </c>
+      <c r="E100" s="30">
+        <v>1</v>
+      </c>
+      <c r="F100" s="31">
+        <v>1</v>
+      </c>
+      <c r="G100" s="31">
+        <v>1</v>
+      </c>
+      <c r="H100" s="31">
+        <v>1</v>
+      </c>
+      <c r="I100" s="21">
+        <v>0</v>
+      </c>
+      <c r="J100" s="31">
+        <v>1</v>
+      </c>
+      <c r="K100" s="21">
+        <v>0</v>
+      </c>
+      <c r="L100" s="21">
+        <v>0</v>
+      </c>
+      <c r="M100" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B101" s="56">
+      <c r="B101" s="49">
         <v>15</v>
       </c>
-      <c r="C101" s="24">
-        <v>0</v>
-      </c>
-      <c r="D101" s="33">
-        <v>1</v>
-      </c>
-      <c r="E101" s="24">
-        <v>0</v>
-      </c>
-      <c r="F101" s="34">
-        <v>1</v>
-      </c>
-      <c r="G101" s="34">
-        <v>1</v>
-      </c>
-      <c r="H101" s="34">
-        <v>1</v>
-      </c>
-      <c r="I101" s="24">
-        <v>0</v>
-      </c>
-      <c r="J101" s="34">
-        <v>1</v>
-      </c>
-      <c r="K101" s="24">
-        <v>0</v>
-      </c>
-      <c r="L101" s="24">
-        <v>0</v>
-      </c>
-      <c r="M101" s="35">
+      <c r="C101" s="21">
+        <v>0</v>
+      </c>
+      <c r="D101" s="30">
+        <v>1</v>
+      </c>
+      <c r="E101" s="21">
+        <v>0</v>
+      </c>
+      <c r="F101" s="31">
+        <v>1</v>
+      </c>
+      <c r="G101" s="31">
+        <v>1</v>
+      </c>
+      <c r="H101" s="31">
+        <v>1</v>
+      </c>
+      <c r="I101" s="21">
+        <v>0</v>
+      </c>
+      <c r="J101" s="31">
+        <v>1</v>
+      </c>
+      <c r="K101" s="21">
+        <v>0</v>
+      </c>
+      <c r="L101" s="21">
+        <v>0</v>
+      </c>
+      <c r="M101" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B102" s="56">
+      <c r="B102" s="49">
         <v>16</v>
       </c>
-      <c r="C102" s="33">
-        <v>1</v>
-      </c>
-      <c r="D102" s="24">
-        <v>0</v>
-      </c>
-      <c r="E102" s="24">
-        <v>0</v>
-      </c>
-      <c r="F102" s="34">
-        <v>1</v>
-      </c>
-      <c r="G102" s="34">
-        <v>1</v>
-      </c>
-      <c r="H102" s="34">
-        <v>1</v>
-      </c>
-      <c r="I102" s="24">
-        <v>0</v>
-      </c>
-      <c r="J102" s="34">
-        <v>1</v>
-      </c>
-      <c r="K102" s="24">
-        <v>0</v>
-      </c>
-      <c r="L102" s="24">
-        <v>0</v>
-      </c>
-      <c r="M102" s="35">
+      <c r="C102" s="30">
+        <v>1</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="21">
+        <v>0</v>
+      </c>
+      <c r="F102" s="31">
+        <v>1</v>
+      </c>
+      <c r="G102" s="31">
+        <v>1</v>
+      </c>
+      <c r="H102" s="31">
+        <v>1</v>
+      </c>
+      <c r="I102" s="21">
+        <v>0</v>
+      </c>
+      <c r="J102" s="31">
+        <v>1</v>
+      </c>
+      <c r="K102" s="21">
+        <v>0</v>
+      </c>
+      <c r="L102" s="21">
+        <v>0</v>
+      </c>
+      <c r="M102" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B103" s="56">
+      <c r="B103" s="49">
         <v>17</v>
       </c>
-      <c r="C103" s="33">
-        <v>1</v>
-      </c>
-      <c r="D103" s="22">
-        <v>0</v>
-      </c>
-      <c r="E103" s="33">
-        <v>1</v>
-      </c>
-      <c r="F103" s="34">
-        <v>1</v>
-      </c>
-      <c r="G103" s="34">
-        <v>1</v>
-      </c>
-      <c r="H103" s="34">
-        <v>1</v>
-      </c>
-      <c r="I103" s="22">
-        <v>0</v>
-      </c>
-      <c r="J103" s="34">
-        <v>1</v>
-      </c>
-      <c r="K103" s="22">
-        <v>0</v>
-      </c>
-      <c r="L103" s="22">
-        <v>0</v>
-      </c>
-      <c r="M103" s="35">
+      <c r="C103" s="30">
+        <v>1</v>
+      </c>
+      <c r="D103" s="19">
+        <v>0</v>
+      </c>
+      <c r="E103" s="30">
+        <v>1</v>
+      </c>
+      <c r="F103" s="31">
+        <v>1</v>
+      </c>
+      <c r="G103" s="31">
+        <v>1</v>
+      </c>
+      <c r="H103" s="31">
+        <v>1</v>
+      </c>
+      <c r="I103" s="19">
+        <v>0</v>
+      </c>
+      <c r="J103" s="31">
+        <v>1</v>
+      </c>
+      <c r="K103" s="19">
+        <v>0</v>
+      </c>
+      <c r="L103" s="19">
+        <v>0</v>
+      </c>
+      <c r="M103" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B104" s="56">
+      <c r="B104" s="49">
         <v>18</v>
       </c>
-      <c r="C104" s="33">
-        <v>1</v>
-      </c>
-      <c r="D104" s="22">
-        <v>0</v>
-      </c>
-      <c r="E104" s="22">
-        <v>0</v>
-      </c>
-      <c r="F104" s="34">
-        <v>1</v>
-      </c>
-      <c r="G104" s="34">
-        <v>1</v>
-      </c>
-      <c r="H104" s="34">
-        <v>1</v>
-      </c>
-      <c r="I104" s="22">
-        <v>0</v>
-      </c>
-      <c r="J104" s="34">
-        <v>1</v>
-      </c>
-      <c r="K104" s="22">
-        <v>0</v>
-      </c>
-      <c r="L104" s="22">
-        <v>0</v>
-      </c>
-      <c r="M104" s="35">
+      <c r="C104" s="30">
+        <v>1</v>
+      </c>
+      <c r="D104" s="19">
+        <v>0</v>
+      </c>
+      <c r="E104" s="19">
+        <v>0</v>
+      </c>
+      <c r="F104" s="31">
+        <v>1</v>
+      </c>
+      <c r="G104" s="31">
+        <v>1</v>
+      </c>
+      <c r="H104" s="31">
+        <v>1</v>
+      </c>
+      <c r="I104" s="19">
+        <v>0</v>
+      </c>
+      <c r="J104" s="31">
+        <v>1</v>
+      </c>
+      <c r="K104" s="19">
+        <v>0</v>
+      </c>
+      <c r="L104" s="19">
+        <v>0</v>
+      </c>
+      <c r="M104" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B105" s="56">
+      <c r="B105" s="49">
         <v>19</v>
       </c>
-      <c r="C105" s="33">
-        <v>1</v>
-      </c>
-      <c r="D105" s="33">
-        <v>1</v>
-      </c>
-      <c r="E105" s="22">
-        <v>0</v>
-      </c>
-      <c r="F105" s="34">
-        <v>1</v>
-      </c>
-      <c r="G105" s="34">
-        <v>1</v>
-      </c>
-      <c r="H105" s="34">
-        <v>1</v>
-      </c>
-      <c r="I105" s="22">
-        <v>0</v>
-      </c>
-      <c r="J105" s="34">
-        <v>1</v>
-      </c>
-      <c r="K105" s="22">
-        <v>0</v>
-      </c>
-      <c r="L105" s="22">
-        <v>0</v>
-      </c>
-      <c r="M105" s="35">
+      <c r="C105" s="30">
+        <v>1</v>
+      </c>
+      <c r="D105" s="30">
+        <v>1</v>
+      </c>
+      <c r="E105" s="19">
+        <v>0</v>
+      </c>
+      <c r="F105" s="31">
+        <v>1</v>
+      </c>
+      <c r="G105" s="31">
+        <v>1</v>
+      </c>
+      <c r="H105" s="31">
+        <v>1</v>
+      </c>
+      <c r="I105" s="19">
+        <v>0</v>
+      </c>
+      <c r="J105" s="31">
+        <v>1</v>
+      </c>
+      <c r="K105" s="19">
+        <v>0</v>
+      </c>
+      <c r="L105" s="19">
+        <v>0</v>
+      </c>
+      <c r="M105" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B106" s="56">
+      <c r="B106" s="49">
         <v>20</v>
       </c>
-      <c r="C106" s="33">
-        <v>1</v>
-      </c>
-      <c r="D106" s="33">
-        <v>1</v>
-      </c>
-      <c r="E106" s="33">
-        <v>1</v>
-      </c>
-      <c r="F106" s="34">
-        <v>1</v>
-      </c>
-      <c r="G106" s="34">
-        <v>1</v>
-      </c>
-      <c r="H106" s="34">
-        <v>1</v>
-      </c>
-      <c r="I106" s="22">
-        <v>0</v>
-      </c>
-      <c r="J106" s="34">
-        <v>1</v>
-      </c>
-      <c r="K106" s="22">
-        <v>0</v>
-      </c>
-      <c r="L106" s="22">
-        <v>0</v>
-      </c>
-      <c r="M106" s="35">
+      <c r="C106" s="30">
+        <v>1</v>
+      </c>
+      <c r="D106" s="30">
+        <v>1</v>
+      </c>
+      <c r="E106" s="30">
+        <v>1</v>
+      </c>
+      <c r="F106" s="31">
+        <v>1</v>
+      </c>
+      <c r="G106" s="31">
+        <v>1</v>
+      </c>
+      <c r="H106" s="31">
+        <v>1</v>
+      </c>
+      <c r="I106" s="19">
+        <v>0</v>
+      </c>
+      <c r="J106" s="31">
+        <v>1</v>
+      </c>
+      <c r="K106" s="19">
+        <v>0</v>
+      </c>
+      <c r="L106" s="19">
+        <v>0</v>
+      </c>
+      <c r="M106" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="56">
+      <c r="B107" s="49">
         <v>21</v>
       </c>
-      <c r="C107" s="26">
-        <v>1</v>
-      </c>
-      <c r="D107" s="26">
-        <v>1</v>
-      </c>
-      <c r="E107" s="25">
-        <v>0</v>
-      </c>
-      <c r="F107" s="36">
-        <v>1</v>
-      </c>
-      <c r="G107" s="36">
-        <v>1</v>
-      </c>
-      <c r="H107" s="36">
-        <v>1</v>
-      </c>
-      <c r="I107" s="25">
-        <v>0</v>
-      </c>
-      <c r="J107" s="36">
-        <v>1</v>
-      </c>
-      <c r="K107" s="25">
-        <v>0</v>
-      </c>
-      <c r="L107" s="25">
-        <v>0</v>
-      </c>
-      <c r="M107" s="37">
+      <c r="C107" s="23">
+        <v>1</v>
+      </c>
+      <c r="D107" s="23">
+        <v>1</v>
+      </c>
+      <c r="E107" s="22">
+        <v>0</v>
+      </c>
+      <c r="F107" s="33">
+        <v>1</v>
+      </c>
+      <c r="G107" s="33">
+        <v>1</v>
+      </c>
+      <c r="H107" s="33">
+        <v>1</v>
+      </c>
+      <c r="I107" s="22">
+        <v>0</v>
+      </c>
+      <c r="J107" s="33">
+        <v>1</v>
+      </c>
+      <c r="K107" s="22">
+        <v>0</v>
+      </c>
+      <c r="L107" s="22">
+        <v>0</v>
+      </c>
+      <c r="M107" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B108" s="56">
+      <c r="B108" s="49">
         <v>22</v>
       </c>
-      <c r="C108" s="21">
-        <v>0</v>
-      </c>
-      <c r="D108" s="21">
-        <v>0</v>
-      </c>
-      <c r="E108" s="21">
-        <v>0</v>
-      </c>
-      <c r="F108" s="30">
-        <v>1</v>
-      </c>
-      <c r="G108" s="38">
-        <v>1</v>
-      </c>
-      <c r="H108" s="38">
-        <v>1</v>
-      </c>
-      <c r="I108" s="21">
-        <v>0</v>
-      </c>
-      <c r="J108" s="21">
-        <v>0</v>
-      </c>
-      <c r="K108" s="38">
-        <v>1</v>
-      </c>
-      <c r="L108" s="38">
-        <v>1</v>
-      </c>
-      <c r="M108" s="32">
+      <c r="C108" s="18">
+        <v>0</v>
+      </c>
+      <c r="D108" s="18">
+        <v>0</v>
+      </c>
+      <c r="E108" s="18">
+        <v>0</v>
+      </c>
+      <c r="F108" s="27">
+        <v>1</v>
+      </c>
+      <c r="G108" s="35">
+        <v>1</v>
+      </c>
+      <c r="H108" s="35">
+        <v>1</v>
+      </c>
+      <c r="I108" s="18">
+        <v>0</v>
+      </c>
+      <c r="J108" s="18">
+        <v>0</v>
+      </c>
+      <c r="K108" s="35">
+        <v>1</v>
+      </c>
+      <c r="L108" s="35">
+        <v>1</v>
+      </c>
+      <c r="M108" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B109" s="56">
+      <c r="B109" s="49">
         <v>23</v>
       </c>
-      <c r="C109" s="22">
-        <v>0</v>
-      </c>
-      <c r="D109" s="22">
-        <v>0</v>
-      </c>
-      <c r="E109" s="22">
-        <v>0</v>
-      </c>
-      <c r="F109" s="34">
-        <v>1</v>
-      </c>
-      <c r="G109" s="39">
-        <v>1</v>
-      </c>
-      <c r="H109" s="39">
-        <v>1</v>
-      </c>
-      <c r="I109" s="22">
-        <v>0</v>
-      </c>
-      <c r="J109" s="22">
-        <v>0</v>
-      </c>
-      <c r="K109" s="39">
-        <v>1</v>
-      </c>
-      <c r="L109" s="39">
-        <v>1</v>
-      </c>
-      <c r="M109" s="35">
+      <c r="C109" s="19">
+        <v>0</v>
+      </c>
+      <c r="D109" s="19">
+        <v>0</v>
+      </c>
+      <c r="E109" s="19">
+        <v>0</v>
+      </c>
+      <c r="F109" s="31">
+        <v>1</v>
+      </c>
+      <c r="G109" s="36">
+        <v>1</v>
+      </c>
+      <c r="H109" s="36">
+        <v>1</v>
+      </c>
+      <c r="I109" s="19">
+        <v>0</v>
+      </c>
+      <c r="J109" s="19">
+        <v>0</v>
+      </c>
+      <c r="K109" s="36">
+        <v>1</v>
+      </c>
+      <c r="L109" s="36">
+        <v>1</v>
+      </c>
+      <c r="M109" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B110" s="56">
+      <c r="B110" s="49">
         <v>24</v>
       </c>
-      <c r="C110" s="22">
-        <v>0</v>
-      </c>
-      <c r="D110" s="33">
-        <v>1</v>
-      </c>
-      <c r="E110" s="22">
-        <v>0</v>
-      </c>
-      <c r="F110" s="34">
-        <v>1</v>
-      </c>
-      <c r="G110" s="39">
-        <v>1</v>
-      </c>
-      <c r="H110" s="39">
-        <v>1</v>
-      </c>
-      <c r="I110" s="22">
-        <v>0</v>
-      </c>
-      <c r="J110" s="22">
-        <v>0</v>
-      </c>
-      <c r="K110" s="39">
-        <v>1</v>
-      </c>
-      <c r="L110" s="39">
-        <v>1</v>
-      </c>
-      <c r="M110" s="35">
+      <c r="C110" s="19">
+        <v>0</v>
+      </c>
+      <c r="D110" s="30">
+        <v>1</v>
+      </c>
+      <c r="E110" s="19">
+        <v>0</v>
+      </c>
+      <c r="F110" s="31">
+        <v>1</v>
+      </c>
+      <c r="G110" s="36">
+        <v>1</v>
+      </c>
+      <c r="H110" s="36">
+        <v>1</v>
+      </c>
+      <c r="I110" s="19">
+        <v>0</v>
+      </c>
+      <c r="J110" s="19">
+        <v>0</v>
+      </c>
+      <c r="K110" s="36">
+        <v>1</v>
+      </c>
+      <c r="L110" s="36">
+        <v>1</v>
+      </c>
+      <c r="M110" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B111" s="56">
+      <c r="B111" s="49">
         <v>25</v>
       </c>
-      <c r="C111" s="22">
-        <v>0</v>
-      </c>
-      <c r="D111" s="33">
-        <v>1</v>
-      </c>
-      <c r="E111" s="22">
-        <v>0</v>
-      </c>
-      <c r="F111" s="34">
-        <v>1</v>
-      </c>
-      <c r="G111" s="39">
-        <v>1</v>
-      </c>
-      <c r="H111" s="39">
-        <v>1</v>
-      </c>
-      <c r="I111" s="22">
-        <v>0</v>
-      </c>
-      <c r="J111" s="22">
-        <v>0</v>
-      </c>
-      <c r="K111" s="39">
-        <v>1</v>
-      </c>
-      <c r="L111" s="39">
-        <v>1</v>
-      </c>
-      <c r="M111" s="35">
+      <c r="C111" s="19">
+        <v>0</v>
+      </c>
+      <c r="D111" s="30">
+        <v>1</v>
+      </c>
+      <c r="E111" s="19">
+        <v>0</v>
+      </c>
+      <c r="F111" s="31">
+        <v>1</v>
+      </c>
+      <c r="G111" s="36">
+        <v>1</v>
+      </c>
+      <c r="H111" s="36">
+        <v>1</v>
+      </c>
+      <c r="I111" s="19">
+        <v>0</v>
+      </c>
+      <c r="J111" s="19">
+        <v>0</v>
+      </c>
+      <c r="K111" s="36">
+        <v>1</v>
+      </c>
+      <c r="L111" s="36">
+        <v>1</v>
+      </c>
+      <c r="M111" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B112" s="56">
+      <c r="B112" s="49">
         <v>26</v>
       </c>
-      <c r="C112" s="33">
-        <v>1</v>
-      </c>
-      <c r="D112" s="22">
-        <v>0</v>
-      </c>
-      <c r="E112" s="22">
-        <v>0</v>
-      </c>
-      <c r="F112" s="34">
-        <v>1</v>
-      </c>
-      <c r="G112" s="39">
-        <v>1</v>
-      </c>
-      <c r="H112" s="39">
-        <v>1</v>
-      </c>
-      <c r="I112" s="22">
-        <v>0</v>
-      </c>
-      <c r="J112" s="22">
-        <v>0</v>
-      </c>
-      <c r="K112" s="39">
-        <v>1</v>
-      </c>
-      <c r="L112" s="39">
-        <v>1</v>
-      </c>
-      <c r="M112" s="35">
+      <c r="C112" s="30">
+        <v>1</v>
+      </c>
+      <c r="D112" s="19">
+        <v>0</v>
+      </c>
+      <c r="E112" s="19">
+        <v>0</v>
+      </c>
+      <c r="F112" s="31">
+        <v>1</v>
+      </c>
+      <c r="G112" s="36">
+        <v>1</v>
+      </c>
+      <c r="H112" s="36">
+        <v>1</v>
+      </c>
+      <c r="I112" s="19">
+        <v>0</v>
+      </c>
+      <c r="J112" s="19">
+        <v>0</v>
+      </c>
+      <c r="K112" s="36">
+        <v>1</v>
+      </c>
+      <c r="L112" s="36">
+        <v>1</v>
+      </c>
+      <c r="M112" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B113" s="56">
+      <c r="B113" s="49">
         <v>27</v>
       </c>
-      <c r="C113" s="33">
-        <v>1</v>
-      </c>
-      <c r="D113" s="22">
-        <v>0</v>
-      </c>
-      <c r="E113" s="22">
-        <v>0</v>
-      </c>
-      <c r="F113" s="34">
-        <v>1</v>
-      </c>
-      <c r="G113" s="39">
-        <v>1</v>
-      </c>
-      <c r="H113" s="39">
-        <v>1</v>
-      </c>
-      <c r="I113" s="22">
-        <v>0</v>
-      </c>
-      <c r="J113" s="22">
-        <v>0</v>
-      </c>
-      <c r="K113" s="39">
-        <v>1</v>
-      </c>
-      <c r="L113" s="39">
-        <v>1</v>
-      </c>
-      <c r="M113" s="35">
+      <c r="C113" s="30">
+        <v>1</v>
+      </c>
+      <c r="D113" s="19">
+        <v>0</v>
+      </c>
+      <c r="E113" s="19">
+        <v>0</v>
+      </c>
+      <c r="F113" s="31">
+        <v>1</v>
+      </c>
+      <c r="G113" s="36">
+        <v>1</v>
+      </c>
+      <c r="H113" s="36">
+        <v>1</v>
+      </c>
+      <c r="I113" s="19">
+        <v>0</v>
+      </c>
+      <c r="J113" s="19">
+        <v>0</v>
+      </c>
+      <c r="K113" s="36">
+        <v>1</v>
+      </c>
+      <c r="L113" s="36">
+        <v>1</v>
+      </c>
+      <c r="M113" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B114" s="56">
+      <c r="B114" s="49">
         <v>28</v>
       </c>
-      <c r="C114" s="33">
-        <v>1</v>
-      </c>
-      <c r="D114" s="33">
-        <v>1</v>
-      </c>
-      <c r="E114" s="22">
-        <v>0</v>
-      </c>
-      <c r="F114" s="34">
-        <v>1</v>
-      </c>
-      <c r="G114" s="39">
-        <v>1</v>
-      </c>
-      <c r="H114" s="39">
-        <v>1</v>
-      </c>
-      <c r="I114" s="22">
-        <v>0</v>
-      </c>
-      <c r="J114" s="22">
-        <v>0</v>
-      </c>
-      <c r="K114" s="39">
-        <v>1</v>
-      </c>
-      <c r="L114" s="39">
-        <v>1</v>
-      </c>
-      <c r="M114" s="35">
+      <c r="C114" s="30">
+        <v>1</v>
+      </c>
+      <c r="D114" s="30">
+        <v>1</v>
+      </c>
+      <c r="E114" s="19">
+        <v>0</v>
+      </c>
+      <c r="F114" s="31">
+        <v>1</v>
+      </c>
+      <c r="G114" s="36">
+        <v>1</v>
+      </c>
+      <c r="H114" s="36">
+        <v>1</v>
+      </c>
+      <c r="I114" s="19">
+        <v>0</v>
+      </c>
+      <c r="J114" s="19">
+        <v>0</v>
+      </c>
+      <c r="K114" s="36">
+        <v>1</v>
+      </c>
+      <c r="L114" s="36">
+        <v>1</v>
+      </c>
+      <c r="M114" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="57">
+      <c r="B115" s="50">
         <v>29</v>
       </c>
-      <c r="C115" s="26">
-        <v>1</v>
-      </c>
-      <c r="D115" s="26">
-        <v>1</v>
-      </c>
-      <c r="E115" s="25">
-        <v>0</v>
-      </c>
-      <c r="F115" s="36">
-        <v>1</v>
-      </c>
-      <c r="G115" s="40">
-        <v>1</v>
-      </c>
-      <c r="H115" s="40">
-        <v>1</v>
-      </c>
-      <c r="I115" s="25">
-        <v>0</v>
-      </c>
-      <c r="J115" s="25">
-        <v>0</v>
-      </c>
-      <c r="K115" s="40">
-        <v>1</v>
-      </c>
-      <c r="L115" s="40">
-        <v>1</v>
-      </c>
-      <c r="M115" s="37">
+      <c r="C115" s="23">
+        <v>1</v>
+      </c>
+      <c r="D115" s="23">
+        <v>1</v>
+      </c>
+      <c r="E115" s="22">
+        <v>0</v>
+      </c>
+      <c r="F115" s="33">
+        <v>1</v>
+      </c>
+      <c r="G115" s="37">
+        <v>1</v>
+      </c>
+      <c r="H115" s="37">
+        <v>1</v>
+      </c>
+      <c r="I115" s="22">
+        <v>0</v>
+      </c>
+      <c r="J115" s="22">
+        <v>0</v>
+      </c>
+      <c r="K115" s="37">
+        <v>1</v>
+      </c>
+      <c r="L115" s="37">
+        <v>1</v>
+      </c>
+      <c r="M115" s="34">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="Q97:Q98"/>
+    <mergeCell ref="R97:R98"/>
+    <mergeCell ref="S97:S98"/>
+    <mergeCell ref="T97:T98"/>
     <mergeCell ref="C85:E85"/>
     <mergeCell ref="Q93:Q94"/>
     <mergeCell ref="T93:T94"/>
     <mergeCell ref="S95:S96"/>
     <mergeCell ref="T95:T96"/>
-    <mergeCell ref="Q97:Q98"/>
-    <mergeCell ref="R97:R98"/>
-    <mergeCell ref="S97:S98"/>
-    <mergeCell ref="T97:T98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Logicalrules-Ref.xlsx
+++ b/Logicalrules-Ref.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/GitHub/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30AB1FE-99F6-8840-A876-5458389591C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CB90A2-43A6-8543-8592-83FA7676058D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1480" windowWidth="35200" windowHeight="21100" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
+    <workbookView xWindow="6920" yWindow="460" windowWidth="35200" windowHeight="21100" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Interaction" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="145">
   <si>
     <t>sna</t>
   </si>
@@ -335,9 +335,6 @@
     <t>Glial_cells</t>
   </si>
   <si>
-    <t>msh &amp; (en | gsb)</t>
-  </si>
-  <si>
     <t>Neurons</t>
   </si>
   <si>
@@ -388,9 +385,6 @@
 adjacent receiving cells.</t>
   </si>
   <si>
-    <t>In row 5 cells, ptc represses gsb.</t>
-  </si>
-  <si>
     <t>En/hh, ptc, wg are transcribed at the anterior cells via Ci activator.</t>
   </si>
   <si>
@@ -419,9 +413,6 @@
   </si>
   <si>
     <t>﻿Vnd represses ind and msh in the ventral neuroectoderm, and ind represses msh in the intermediate neuroectoderm.</t>
-  </si>
-  <si>
-    <t>(vnd | ind | msh) &amp; (wg | gsb | en)</t>
   </si>
   <si>
     <t>Pka phosphorylates Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.</t>
@@ -467,10 +458,28 @@
     <t> N</t>
   </si>
   <si>
-    <t>﻿Wg can also autoregulate via Gsb. Ci_act induces transcription of En, Ptc, and Wg.</t>
-  </si>
-  <si>
     <t>Boolean functions were driven based on the information on morphologies of the NBs observed in vivo around late stage 11 (according to Bossing et al., 1996). ﻿Gene expression along the A/P axis (e.g., wg, wingless; gsb, gooseberry; en, engrailed) and the dorso-ventral axis (vnd, ventral nervous system defective; ind, intermediate neuroblasts defective; msh, muscle segment homeobox; and DER, Drosophila EGF receptor) subdivide the vNR into a grid-like Cartesian coordinate system. This system provides positional information, which specifies the identities of proneural clusters. Each proneural cluster gives rise to one specific NB. For example, NB6-4 delaminates from a proneural cluster that expresses msh and engrailed. NB4-6 gives rise to glial cells exclusively.</t>
+  </si>
+  <si>
+    <t>In row 5 cells, ptc represses gsb. (gsb and gsbn share overlapping functions in segmentation and the CNS)</t>
+  </si>
+  <si>
+    <t>Bhat et al., 1999; He, H., Noll, M. (2013) Dev. Biol. 382(1): 209--223.</t>
+  </si>
+  <si>
+    <t>wg &amp; gsb</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>﻿Gsb maintains the wild-type level and pattern of wg expression in rows 4 and 5 in ptc mutants and in row 5 in wild-type embryos. Ci_act induces transcription of En, Ptc, and Wg.</t>
+  </si>
+  <si>
+    <t>(vnd | ind | msh) &amp; ((wg &amp; gsb) | en)</t>
+  </si>
+  <si>
+    <t>msh &amp; ((wg &amp;gsb) | en)</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -724,28 +733,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -790,11 +777,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -905,27 +1057,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -935,16 +1072,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1264,7 +1450,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1298,10 +1484,10 @@
         <v>68</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1313,7 +1499,7 @@
         <v>67</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>62</v>
@@ -1328,10 +1514,10 @@
         <v>79</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -1343,10 +1529,10 @@
         <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -1358,7 +1544,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>61</v>
@@ -1373,10 +1559,10 @@
         <v>77</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="7"/>
     </row>
@@ -1388,10 +1574,10 @@
         <v>74</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -1403,10 +1589,10 @@
         <v>78</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="7"/>
     </row>
@@ -1418,14 +1604,14 @@
         <v>76</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>103</v>
+        <v>123</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>81</v>
       </c>
@@ -1433,9 +1619,9 @@
         <v>82</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="51"/>
+        <v>142</v>
+      </c>
+      <c r="D11" s="46"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -1446,10 +1632,10 @@
         <v>84</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E12" s="7"/>
     </row>
@@ -1461,10 +1647,10 @@
         <v>83</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -1476,10 +1662,10 @@
         <v>85</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -1491,10 +1677,10 @@
         <v>88</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -1505,11 +1691,11 @@
       <c r="B16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="47" t="s">
         <v>108</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>109</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -1520,8 +1706,8 @@
       <c r="B17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1532,10 +1718,10 @@
         <v>95</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>110</v>
+        <v>122</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>109</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1547,9 +1733,9 @@
         <v>93</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="52"/>
+        <v>110</v>
+      </c>
+      <c r="D19" s="47"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1560,7 +1746,7 @@
         <v>96</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
@@ -1570,25 +1756,25 @@
         <v>97</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="52" t="s">
-        <v>112</v>
+        <v>144</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>111</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+        <v>143</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2008,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E54B9C-9798-7F46-81A1-C5EA92519C78}">
   <dimension ref="B2:Z115"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="P109" sqref="P109"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="T111" sqref="T111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2030,16 +2216,16 @@
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -2063,10 +2249,10 @@
         <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O2" t="s">
         <v>83</v>
@@ -2099,7 +2285,7 @@
         <v>97</v>
       </c>
       <c r="Y2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
@@ -2113,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2187,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2483,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2779,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3075,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3371,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3667,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -3815,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3963,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4111,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4250,7 +4436,7 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
@@ -4265,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -4280,7 +4466,7 @@
         <v>97</v>
       </c>
       <c r="M37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.2">
@@ -5952,13 +6138,13 @@
       </c>
     </row>
     <row r="85" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="53"/>
-      <c r="D85" s="53"/>
-      <c r="E85" s="53"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
     </row>
     <row r="86" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C86" s="38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>68</v>
@@ -5988,11 +6174,11 @@
         <v>97</v>
       </c>
       <c r="M86" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B87" s="48">
+      <c r="B87" s="42">
         <v>1</v>
       </c>
       <c r="C87" s="19">
@@ -6030,7 +6216,7 @@
       </c>
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B88" s="49">
+      <c r="B88" s="43">
         <v>2</v>
       </c>
       <c r="C88" s="19">
@@ -6068,7 +6254,7 @@
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B89" s="49">
+      <c r="B89" s="43">
         <v>3</v>
       </c>
       <c r="C89" s="19">
@@ -6106,7 +6292,7 @@
       </c>
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B90" s="49">
+      <c r="B90" s="43">
         <v>4</v>
       </c>
       <c r="C90" s="19">
@@ -6143,8 +6329,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="49">
+    <row r="91" spans="2:20" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="43">
         <v>5</v>
       </c>
       <c r="C91" s="22">
@@ -6180,9 +6366,20 @@
       <c r="M91" s="25">
         <v>0</v>
       </c>
+      <c r="P91" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="R91" s="55"/>
+      <c r="S91" s="41">
+        <v>7</v>
+      </c>
+      <c r="T91" s="52"/>
     </row>
     <row r="92" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B92" s="49">
+      <c r="B92" s="43">
         <v>6</v>
       </c>
       <c r="C92" s="18">
@@ -6218,395 +6415,388 @@
       <c r="M92" s="29">
         <v>1</v>
       </c>
-      <c r="P92" s="41" t="s">
+      <c r="P92" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q92" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="R92" s="50"/>
+      <c r="S92" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="T92" s="53"/>
+    </row>
+    <row r="93" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B93" s="43">
+        <v>7</v>
+      </c>
+      <c r="C93" s="19">
+        <v>0</v>
+      </c>
+      <c r="D93" s="30">
+        <v>1</v>
+      </c>
+      <c r="E93" s="30">
+        <v>1</v>
+      </c>
+      <c r="F93" s="31">
+        <v>1</v>
+      </c>
+      <c r="G93" s="31">
+        <v>1</v>
+      </c>
+      <c r="H93" s="31">
+        <v>1</v>
+      </c>
+      <c r="I93" s="31">
+        <v>1</v>
+      </c>
+      <c r="J93" s="21">
+        <v>0</v>
+      </c>
+      <c r="K93" s="19">
+        <v>0</v>
+      </c>
+      <c r="L93" s="19">
+        <v>0</v>
+      </c>
+      <c r="M93" s="32">
+        <v>1</v>
+      </c>
+      <c r="P93" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q93" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="R93" s="60"/>
+      <c r="S93" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="Q92" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="R92" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="S92" s="41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B93" s="49">
-        <v>7</v>
-      </c>
-      <c r="C93" s="19">
-        <v>0</v>
-      </c>
-      <c r="D93" s="30">
-        <v>1</v>
-      </c>
-      <c r="E93" s="30">
-        <v>1</v>
-      </c>
-      <c r="F93" s="31">
-        <v>1</v>
-      </c>
-      <c r="G93" s="31">
-        <v>1</v>
-      </c>
-      <c r="H93" s="31">
-        <v>1</v>
-      </c>
-      <c r="I93" s="31">
-        <v>1</v>
-      </c>
-      <c r="J93" s="21">
-        <v>0</v>
-      </c>
-      <c r="K93" s="19">
-        <v>0</v>
-      </c>
-      <c r="L93" s="19">
-        <v>0</v>
-      </c>
-      <c r="M93" s="32">
-        <v>1</v>
-      </c>
-      <c r="P93" s="42" t="s">
+      <c r="T93" s="50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B94" s="43">
+        <v>8</v>
+      </c>
+      <c r="C94" s="30">
+        <v>1</v>
+      </c>
+      <c r="D94" s="19">
+        <v>0</v>
+      </c>
+      <c r="E94" s="30">
+        <v>1</v>
+      </c>
+      <c r="F94" s="31">
+        <v>1</v>
+      </c>
+      <c r="G94" s="31">
+        <v>1</v>
+      </c>
+      <c r="H94" s="31">
+        <v>1</v>
+      </c>
+      <c r="I94" s="31">
+        <v>1</v>
+      </c>
+      <c r="J94" s="19">
+        <v>0</v>
+      </c>
+      <c r="K94" s="19">
+        <v>0</v>
+      </c>
+      <c r="L94" s="19">
+        <v>0</v>
+      </c>
+      <c r="M94" s="32">
+        <v>1</v>
+      </c>
+      <c r="P94" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="Q93" s="54" t="s">
+      <c r="Q94" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="R94" s="61"/>
+      <c r="S94" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="T94" s="51"/>
+    </row>
+    <row r="95" spans="2:20" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="43">
+        <v>9</v>
+      </c>
+      <c r="C95" s="23">
+        <v>1</v>
+      </c>
+      <c r="D95" s="23">
+        <v>1</v>
+      </c>
+      <c r="E95" s="23">
+        <v>1</v>
+      </c>
+      <c r="F95" s="33">
+        <v>1</v>
+      </c>
+      <c r="G95" s="33">
+        <v>1</v>
+      </c>
+      <c r="H95" s="33">
+        <v>1</v>
+      </c>
+      <c r="I95" s="33">
+        <v>1</v>
+      </c>
+      <c r="J95" s="22">
+        <v>0</v>
+      </c>
+      <c r="K95" s="22">
+        <v>0</v>
+      </c>
+      <c r="L95" s="22">
+        <v>0</v>
+      </c>
+      <c r="M95" s="34">
+        <v>1</v>
+      </c>
+      <c r="P95" s="67"/>
+      <c r="Q95" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="R95" s="57"/>
+      <c r="S95" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="R93" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="S93" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="T93" s="56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B94" s="49">
-        <v>8</v>
-      </c>
-      <c r="C94" s="30">
-        <v>1</v>
-      </c>
-      <c r="D94" s="19">
-        <v>0</v>
-      </c>
-      <c r="E94" s="30">
-        <v>1</v>
-      </c>
-      <c r="F94" s="31">
-        <v>1</v>
-      </c>
-      <c r="G94" s="31">
-        <v>1</v>
-      </c>
-      <c r="H94" s="31">
-        <v>1</v>
-      </c>
-      <c r="I94" s="31">
-        <v>1</v>
-      </c>
-      <c r="J94" s="19">
-        <v>0</v>
-      </c>
-      <c r="K94" s="19">
-        <v>0</v>
-      </c>
-      <c r="L94" s="19">
-        <v>0</v>
-      </c>
-      <c r="M94" s="32">
-        <v>1</v>
-      </c>
-      <c r="P94" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q94" s="55"/>
-      <c r="R94" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="S94" s="46" t="s">
+      <c r="T95" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="B96" s="43">
+        <v>10</v>
+      </c>
+      <c r="C96" s="18">
+        <v>0</v>
+      </c>
+      <c r="D96" s="18">
+        <v>0</v>
+      </c>
+      <c r="E96" s="18">
+        <v>0</v>
+      </c>
+      <c r="F96" s="27">
+        <v>1</v>
+      </c>
+      <c r="G96" s="27">
+        <v>1</v>
+      </c>
+      <c r="H96" s="27">
+        <v>1</v>
+      </c>
+      <c r="I96" s="28">
+        <v>0</v>
+      </c>
+      <c r="J96" s="27">
+        <v>1</v>
+      </c>
+      <c r="K96" s="18">
+        <v>0</v>
+      </c>
+      <c r="L96" s="18">
+        <v>0</v>
+      </c>
+      <c r="M96" s="29">
+        <v>1</v>
+      </c>
+      <c r="P96" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q96" s="63"/>
+      <c r="R96" s="58"/>
+      <c r="S96" s="58"/>
+      <c r="T96" s="51"/>
+    </row>
+    <row r="97" spans="2:21" ht="22" x14ac:dyDescent="0.25">
+      <c r="B97" s="43">
+        <v>11</v>
+      </c>
+      <c r="C97" s="19">
+        <v>0</v>
+      </c>
+      <c r="D97" s="19">
+        <v>0</v>
+      </c>
+      <c r="E97" s="30">
+        <v>1</v>
+      </c>
+      <c r="F97" s="31">
+        <v>1</v>
+      </c>
+      <c r="G97" s="31">
+        <v>1</v>
+      </c>
+      <c r="H97" s="31">
+        <v>1</v>
+      </c>
+      <c r="I97" s="21">
+        <v>0</v>
+      </c>
+      <c r="J97" s="31">
+        <v>1</v>
+      </c>
+      <c r="K97" s="19">
+        <v>0</v>
+      </c>
+      <c r="L97" s="19">
+        <v>0</v>
+      </c>
+      <c r="M97" s="32">
+        <v>1</v>
+      </c>
+      <c r="P97" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q97" s="64" t="s">
         <v>136</v>
       </c>
-      <c r="T94" s="57"/>
-    </row>
-    <row r="95" spans="2:20" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="49">
-        <v>9</v>
-      </c>
-      <c r="C95" s="23">
-        <v>1</v>
-      </c>
-      <c r="D95" s="23">
-        <v>1</v>
-      </c>
-      <c r="E95" s="23">
-        <v>1</v>
-      </c>
-      <c r="F95" s="33">
-        <v>1</v>
-      </c>
-      <c r="G95" s="33">
-        <v>1</v>
-      </c>
-      <c r="H95" s="33">
-        <v>1</v>
-      </c>
-      <c r="I95" s="33">
-        <v>1</v>
-      </c>
-      <c r="J95" s="22">
-        <v>0</v>
-      </c>
-      <c r="K95" s="22">
-        <v>0</v>
-      </c>
-      <c r="L95" s="22">
-        <v>0</v>
-      </c>
-      <c r="M95" s="34">
-        <v>1</v>
-      </c>
-      <c r="P95" s="43"/>
-      <c r="Q95" s="43"/>
-      <c r="R95" s="43"/>
-      <c r="S95" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="T95" s="56" t="s">
+      <c r="R97" s="59"/>
+      <c r="S97" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="T97" s="50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="2:21" ht="22" x14ac:dyDescent="0.25">
+      <c r="B98" s="43">
+        <v>12</v>
+      </c>
+      <c r="C98" s="19">
+        <v>0</v>
+      </c>
+      <c r="D98" s="19">
+        <v>0</v>
+      </c>
+      <c r="E98" s="19">
+        <v>0</v>
+      </c>
+      <c r="F98" s="31">
+        <v>1</v>
+      </c>
+      <c r="G98" s="31">
+        <v>1</v>
+      </c>
+      <c r="H98" s="31">
+        <v>1</v>
+      </c>
+      <c r="I98" s="21">
+        <v>0</v>
+      </c>
+      <c r="J98" s="31">
+        <v>1</v>
+      </c>
+      <c r="K98" s="19">
+        <v>0</v>
+      </c>
+      <c r="L98" s="19">
+        <v>0</v>
+      </c>
+      <c r="M98" s="32">
+        <v>1</v>
+      </c>
+      <c r="P98" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q98" s="63"/>
+      <c r="R98" s="58"/>
+      <c r="S98" s="58"/>
+      <c r="T98" s="51"/>
+    </row>
+    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B99" s="43">
+        <v>13</v>
+      </c>
+      <c r="C99" s="19">
+        <v>0</v>
+      </c>
+      <c r="D99" s="30">
+        <v>1</v>
+      </c>
+      <c r="E99" s="19">
+        <v>0</v>
+      </c>
+      <c r="F99" s="31">
+        <v>1</v>
+      </c>
+      <c r="G99" s="31">
+        <v>1</v>
+      </c>
+      <c r="H99" s="31">
+        <v>1</v>
+      </c>
+      <c r="I99" s="21">
+        <v>0</v>
+      </c>
+      <c r="J99" s="31">
+        <v>1</v>
+      </c>
+      <c r="K99" s="19">
+        <v>0</v>
+      </c>
+      <c r="L99" s="19">
+        <v>0</v>
+      </c>
+      <c r="M99" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B100" s="43">
+        <v>14</v>
+      </c>
+      <c r="C100" s="21">
+        <v>0</v>
+      </c>
+      <c r="D100" s="30">
+        <v>1</v>
+      </c>
+      <c r="E100" s="30">
+        <v>1</v>
+      </c>
+      <c r="F100" s="31">
+        <v>1</v>
+      </c>
+      <c r="G100" s="31">
+        <v>1</v>
+      </c>
+      <c r="H100" s="31">
+        <v>1</v>
+      </c>
+      <c r="I100" s="21">
+        <v>0</v>
+      </c>
+      <c r="J100" s="31">
+        <v>1</v>
+      </c>
+      <c r="K100" s="21">
+        <v>0</v>
+      </c>
+      <c r="L100" s="21">
+        <v>0</v>
+      </c>
+      <c r="M100" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B101" s="43">
         <v>15</v>
       </c>
-    </row>
-    <row r="96" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B96" s="49">
-        <v>10</v>
-      </c>
-      <c r="C96" s="18">
-        <v>0</v>
-      </c>
-      <c r="D96" s="18">
-        <v>0</v>
-      </c>
-      <c r="E96" s="18">
-        <v>0</v>
-      </c>
-      <c r="F96" s="27">
-        <v>1</v>
-      </c>
-      <c r="G96" s="27">
-        <v>1</v>
-      </c>
-      <c r="H96" s="27">
-        <v>1</v>
-      </c>
-      <c r="I96" s="28">
-        <v>0</v>
-      </c>
-      <c r="J96" s="27">
-        <v>1</v>
-      </c>
-      <c r="K96" s="18">
-        <v>0</v>
-      </c>
-      <c r="L96" s="18">
-        <v>0</v>
-      </c>
-      <c r="M96" s="29">
-        <v>1</v>
-      </c>
-      <c r="P96" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q96" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="R96" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="S96" s="55"/>
-      <c r="T96" s="57"/>
-    </row>
-    <row r="97" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B97" s="49">
-        <v>11</v>
-      </c>
-      <c r="C97" s="19">
-        <v>0</v>
-      </c>
-      <c r="D97" s="19">
-        <v>0</v>
-      </c>
-      <c r="E97" s="30">
-        <v>1</v>
-      </c>
-      <c r="F97" s="31">
-        <v>1</v>
-      </c>
-      <c r="G97" s="31">
-        <v>1</v>
-      </c>
-      <c r="H97" s="31">
-        <v>1</v>
-      </c>
-      <c r="I97" s="21">
-        <v>0</v>
-      </c>
-      <c r="J97" s="31">
-        <v>1</v>
-      </c>
-      <c r="K97" s="19">
-        <v>0</v>
-      </c>
-      <c r="L97" s="19">
-        <v>0</v>
-      </c>
-      <c r="M97" s="32">
-        <v>1</v>
-      </c>
-      <c r="P97" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q97" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="R97" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="S97" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="T97" s="56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="2:20" ht="22" x14ac:dyDescent="0.25">
-      <c r="B98" s="49">
-        <v>12</v>
-      </c>
-      <c r="C98" s="19">
-        <v>0</v>
-      </c>
-      <c r="D98" s="19">
-        <v>0</v>
-      </c>
-      <c r="E98" s="19">
-        <v>0</v>
-      </c>
-      <c r="F98" s="31">
-        <v>1</v>
-      </c>
-      <c r="G98" s="31">
-        <v>1</v>
-      </c>
-      <c r="H98" s="31">
-        <v>1</v>
-      </c>
-      <c r="I98" s="21">
-        <v>0</v>
-      </c>
-      <c r="J98" s="31">
-        <v>1</v>
-      </c>
-      <c r="K98" s="19">
-        <v>0</v>
-      </c>
-      <c r="L98" s="19">
-        <v>0</v>
-      </c>
-      <c r="M98" s="32">
-        <v>1</v>
-      </c>
-      <c r="P98" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q98" s="55"/>
-      <c r="R98" s="55"/>
-      <c r="S98" s="55"/>
-      <c r="T98" s="57"/>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B99" s="49">
-        <v>13</v>
-      </c>
-      <c r="C99" s="19">
-        <v>0</v>
-      </c>
-      <c r="D99" s="30">
-        <v>1</v>
-      </c>
-      <c r="E99" s="19">
-        <v>0</v>
-      </c>
-      <c r="F99" s="31">
-        <v>1</v>
-      </c>
-      <c r="G99" s="31">
-        <v>1</v>
-      </c>
-      <c r="H99" s="31">
-        <v>1</v>
-      </c>
-      <c r="I99" s="21">
-        <v>0</v>
-      </c>
-      <c r="J99" s="31">
-        <v>1</v>
-      </c>
-      <c r="K99" s="19">
-        <v>0</v>
-      </c>
-      <c r="L99" s="19">
-        <v>0</v>
-      </c>
-      <c r="M99" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B100" s="49">
-        <v>14</v>
-      </c>
-      <c r="C100" s="21">
-        <v>0</v>
-      </c>
-      <c r="D100" s="30">
-        <v>1</v>
-      </c>
-      <c r="E100" s="30">
-        <v>1</v>
-      </c>
-      <c r="F100" s="31">
-        <v>1</v>
-      </c>
-      <c r="G100" s="31">
-        <v>1</v>
-      </c>
-      <c r="H100" s="31">
-        <v>1</v>
-      </c>
-      <c r="I100" s="21">
-        <v>0</v>
-      </c>
-      <c r="J100" s="31">
-        <v>1</v>
-      </c>
-      <c r="K100" s="21">
-        <v>0</v>
-      </c>
-      <c r="L100" s="21">
-        <v>0</v>
-      </c>
-      <c r="M100" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B101" s="49">
-        <v>15</v>
-      </c>
       <c r="C101" s="21">
         <v>0</v>
       </c>
@@ -6641,8 +6831,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B102" s="49">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B102" s="43">
         <v>16</v>
       </c>
       <c r="C102" s="30">
@@ -6678,9 +6868,10 @@
       <c r="M102" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B103" s="49">
+      <c r="P102" s="56"/>
+    </row>
+    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B103" s="43">
         <v>17</v>
       </c>
       <c r="C103" s="30">
@@ -6716,9 +6907,10 @@
       <c r="M103" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B104" s="49">
+      <c r="P103" s="56"/>
+    </row>
+    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B104" s="43">
         <v>18</v>
       </c>
       <c r="C104" s="30">
@@ -6755,8 +6947,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B105" s="49">
+    <row r="105" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B105" s="43">
         <v>19</v>
       </c>
       <c r="C105" s="30">
@@ -6793,8 +6985,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B106" s="49">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B106" s="43">
         <v>20</v>
       </c>
       <c r="C106" s="30">
@@ -6831,8 +7023,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="49">
+    <row r="107" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="43">
         <v>21</v>
       </c>
       <c r="C107" s="23">
@@ -6869,8 +7061,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B108" s="49">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B108" s="43">
         <v>22</v>
       </c>
       <c r="C108" s="18">
@@ -6907,8 +7099,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B109" s="49">
+    <row r="109" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B109" s="43">
         <v>23</v>
       </c>
       <c r="C109" s="19">
@@ -6945,8 +7137,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B110" s="49">
+    <row r="110" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B110" s="43">
         <v>24</v>
       </c>
       <c r="C110" s="19">
@@ -6982,9 +7174,10 @@
       <c r="M110" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B111" s="49">
+      <c r="P110" s="56"/>
+    </row>
+    <row r="111" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B111" s="43">
         <v>25</v>
       </c>
       <c r="C111" s="19">
@@ -7020,9 +7213,10 @@
       <c r="M111" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B112" s="49">
+      <c r="P111" s="56"/>
+    </row>
+    <row r="112" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B112" s="43">
         <v>26</v>
       </c>
       <c r="C112" s="30">
@@ -7058,9 +7252,10 @@
       <c r="M112" s="32">
         <v>1</v>
       </c>
+      <c r="U112" s="56"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B113" s="49">
+      <c r="B113" s="43">
         <v>27</v>
       </c>
       <c r="C113" s="30">
@@ -7098,7 +7293,7 @@
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B114" s="49">
+      <c r="B114" s="43">
         <v>28</v>
       </c>
       <c r="C114" s="30">
@@ -7136,7 +7331,7 @@
       </c>
     </row>
     <row r="115" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="50">
+      <c r="B115" s="44">
         <v>29</v>
       </c>
       <c r="C115" s="23">
@@ -7174,16 +7369,20 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Q97:Q98"/>
-    <mergeCell ref="R97:R98"/>
+  <mergeCells count="13">
     <mergeCell ref="S97:S98"/>
     <mergeCell ref="T97:T98"/>
     <mergeCell ref="C85:E85"/>
-    <mergeCell ref="Q93:Q94"/>
     <mergeCell ref="T93:T94"/>
     <mergeCell ref="S95:S96"/>
     <mergeCell ref="T95:T96"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="Q95:R96"/>
+    <mergeCell ref="Q97:R98"/>
+    <mergeCell ref="T91:T92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Logicalrules-Ref.xlsx
+++ b/Logicalrules-Ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/GitHub/DevelopmentalSignaling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CB90A2-43A6-8543-8592-83FA7676058D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAF04FC-3D3B-984F-ACC5-92C20D988D02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6920" yWindow="460" windowWidth="35200" windowHeight="21100" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
+    <workbookView xWindow="30300" yWindow="-7520" windowWidth="27660" windowHeight="17920" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Interaction" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
   <si>
     <t>sna</t>
   </si>
@@ -254,15 +254,9 @@
     <t xml:space="preserve">gsb </t>
   </si>
   <si>
-    <t xml:space="preserve"> ! Ptc</t>
-  </si>
-  <si>
     <t>Ptc</t>
   </si>
   <si>
-    <t>! (Hh_ex &amp; en)</t>
-  </si>
-  <si>
     <t>Smo</t>
   </si>
   <si>
@@ -272,15 +266,6 @@
     <t>Pka</t>
   </si>
   <si>
-    <t>! Ptc</t>
-  </si>
-  <si>
-    <t>! Smo</t>
-  </si>
-  <si>
-    <t>en &amp; ! Ci_rep</t>
-  </si>
-  <si>
     <t>Ci_rep</t>
   </si>
   <si>
@@ -329,9 +314,6 @@
     <t>!vnd &amp; !Gro &amp; en</t>
   </si>
   <si>
-    <t>! vnd &amp; ! ind</t>
-  </si>
-  <si>
     <t>Glial_cells</t>
   </si>
   <si>
@@ -353,23 +335,11 @@
     <t>Ingham PW, McMahon AP, Genes Dev. 2001 Dec 1;15(23):3059-87. doi: 10.1101/gad.938601. PMID: 11731473.</t>
   </si>
   <si>
-    <t>﻿Brunner, D.; Oellers, N.; Szabad, J.; Biggs, W.H., 3rd; Zipursky, S.L.; Hafen, E. A gain-of-function mutation in Drosophila MAP kinase activates multiple receptor tyrosine kinase signaling pathways. Cell 1994, 76, 875–888.</t>
-  </si>
-  <si>
-    <t>﻿Brunner, D.; Oellers, N.; Szabad, J.; Biggs, W.H., 3rd; Zipursky, S.L.; Hafen, E. A gain-of-function mutation in Drosophila MAP kinase activates multiple receptor tyrosine kinase signaling pathways. Cell 1994, 76, 875–888. Oellers, N.; Hafen, E. Biochemical characterization of rolledsem, an activated form of Drosophila mitogen-activated protein kinase. J. Biol. Chem. 1996, 271, 24939–24944.</t>
-  </si>
-  <si>
     <t>﻿Karin Dumstrei et al.,1998, Klaes et al., 1994; Gabay et al., 1996)﻿</t>
-  </si>
-  <si>
-    <t>﻿Gro is phosphorylated by MAPK. Modification of Gro downregulates its repressor activity, causing derepression of pathway target genes. MAPK is no longer active after RTK signalling has been turned off, yet Gro remains stably phosphorylated and its activity attenuated, allowing for sustained RTK target gene expression. ﻿It has been captured that phosphorylated Groucho is a nuclear and stable protein by introducing self loop(16th reaction) and its negative regulation of on Gro(17th reaction).</t>
   </si>
   <si>
     <t xml:space="preserve">﻿Einat Cinnamon, et al., 2008, ﻿Development 135, 829-837, doi:10.1242/dev.015206
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (Cowden and Levine, 2003), ﻿J. Seibert, R. Urbach / Developmental Biology 346 (2010) 332–345</t>
   </si>
   <si>
     <t>see 18</t>
@@ -380,11 +350,6 @@
 Pages 186-204, ISSN 0012-1606, https://doi.org/10.1006/dbio.1997.8660.; ﻿Gerhard M. Technau ﻿DEVELOPMENTAL DYNAMICS 235:861–869, 2006</t>
   </si>
   <si>
-    <t>The Wg signal is then transduced across the
-membrane involving Frizzled proteins (such as Fz and DFz2) in the
-adjacent receiving cells.</t>
-  </si>
-  <si>
     <t>En/hh, ptc, wg are transcribed at the anterior cells via Ci activator.</t>
   </si>
   <si>
@@ -397,25 +362,7 @@
     <t xml:space="preserve">﻿One of the functions of En is to maintain hh expression. ﻿ Ci75 (Ci_rep) which moves to the nucleus and represses Hh target genes. </t>
   </si>
   <si>
-    <t>﻿In ﻿the absence of Hh ligand, repression of Smo allows Drosophila Protein Kinase A (Pka) phosphorylation of Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.</t>
-  </si>
-  <si>
     <t>Spitz encodes ligand that activate Egfr. Argos ﻿functions as an inhibitor of the signaling triggered by Egfr.</t>
-  </si>
-  <si>
-    <t>Rl encodes the mitogen activated protein (MAP) kinase, core component of the RAS/MAPK pathway. Egfr activation induces RAS/MAPK pathway.﻿Cells with a loss of function in Rl produce the same cell-death phenotype as seen in an EGF loss of function.</t>
-  </si>
-  <si>
-    <t>﻿Activated Rl phosphorylates and activates the transcription factors such as Pnt.</t>
-  </si>
-  <si>
-    <t>RAS/MAPK pathway which is represented with its core components Rl (see 13th reaction) activates Pnt and inhibits Aop.</t>
-  </si>
-  <si>
-    <t>﻿Vnd represses ind and msh in the ventral neuroectoderm, and ind represses msh in the intermediate neuroectoderm.</t>
-  </si>
-  <si>
-    <t>Pka phosphorylates Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.</t>
   </si>
   <si>
     <t>Hong J, Hendrix D Papatsenko D et al. DOI: 10.1073/pnas.0806476105.  
@@ -458,12 +405,6 @@
     <t> N</t>
   </si>
   <si>
-    <t>Boolean functions were driven based on the information on morphologies of the NBs observed in vivo around late stage 11 (according to Bossing et al., 1996). ﻿Gene expression along the A/P axis (e.g., wg, wingless; gsb, gooseberry; en, engrailed) and the dorso-ventral axis (vnd, ventral nervous system defective; ind, intermediate neuroblasts defective; msh, muscle segment homeobox; and DER, Drosophila EGF receptor) subdivide the vNR into a grid-like Cartesian coordinate system. This system provides positional information, which specifies the identities of proneural clusters. Each proneural cluster gives rise to one specific NB. For example, NB6-4 delaminates from a proneural cluster that expresses msh and engrailed. NB4-6 gives rise to glial cells exclusively.</t>
-  </si>
-  <si>
-    <t>In row 5 cells, ptc represses gsb. (gsb and gsbn share overlapping functions in segmentation and the CNS)</t>
-  </si>
-  <si>
     <t>Bhat et al., 1999; He, H., Noll, M. (2013) Dev. Biol. 382(1): 209--223.</t>
   </si>
   <si>
@@ -473,13 +414,76 @@
     <t>3-5</t>
   </si>
   <si>
-    <t>﻿Gsb maintains the wild-type level and pattern of wg expression in rows 4 and 5 in ptc mutants and in row 5 in wild-type embryos. Ci_act induces transcription of En, Ptc, and Wg.</t>
-  </si>
-  <si>
     <t>(vnd | ind | msh) &amp; ((wg &amp; gsb) | en)</t>
   </si>
   <si>
     <t>msh &amp; ((wg &amp;gsb) | en)</t>
+  </si>
+  <si>
+    <t>﻿Gsb maintains the wild-type level and pattern of wg expression in rows 4 and 5 in ptc mutants and in row 5 in wild-type embryos. Ci_act induces transcription of en, ptc, and wg.</t>
+  </si>
+  <si>
+    <t>RAS/MAPK pathway which is represented with its core components Rl (see 13th reaction) activates Pnt and inhibits Aop.(Aop has not involved in the current model since we are not interested any targets regulated by Aop.)</t>
+  </si>
+  <si>
+    <t>﻿Gro is phosphorylated by MAPK. Modification of Gro downregulates its repressor activity, causing derepression of pathway target genes. MAPK is no longer active after RTK signalling has been turned off, yet Gro remains stably phosphorylated and its activity attenuated, allowing for sustained RTK target gene expression. ﻿It has been captured that phosphorylated Groucho is a nuclear and stable protein by introducing self loop(see function 16) and its negative regulation of on Gro(see function 17).</t>
+  </si>
+  <si>
+    <t>﻿Vnd represses ind and msh in the ventral neuroectoderm, and ind represses msh in the intermediate neuroectoderm.﻿ In en mutants, ind is only expressed in neuroblasts (data not shown) but not maintained in the corresponding neuroectoderm.</t>
+  </si>
+  <si>
+    <t>﻿EGF signaling and pnt either directly or indirectly maintain the expression of several genes in the neurogenic ectoderm including ind and vnd, which encode regulatory proteins that pattern the future ventral nerve cord. ﻿EGF signaling maintains expression of the Pointed transcription ﻿factor, which, in turn, sustains the expression of vnd (﻿previously activated by Dorsal plus Twi), rho, and vn (see also function 18).</t>
+  </si>
+  <si>
+    <t>The Wg signal is transduced across the membrane involving Frizzled proteins (such as Fz and DFz2) in the adjacent receiving cells.</t>
+  </si>
+  <si>
+    <t>In row 5 cells, ptc represses gsb. ﻿Wg is an activator of gsb. (gsb and gsbn share overlapping functions in segmentation and the CNS.)</t>
+  </si>
+  <si>
+    <t>Bhat et al., 1999; Im et al., 2015</t>
+  </si>
+  <si>
+    <t>﻿In ﻿the absence of Hh ligand, repression of Smo allows Drosophila Protein Kinase A (PKA) phosphorylation of Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.</t>
+  </si>
+  <si>
+    <t>PKA phosphorylates Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.</t>
+  </si>
+  <si>
+    <t>Rl encodes the mitogen activated protein (MAP) kinase, core component of the RAS/MAPK pathway. Egfr activation induces RAS/MAPK pathway.﻿ Cells with a loss of function in Rl produce the same cell-death phenotype as seen in an EGF loss of function.</t>
+  </si>
+  <si>
+    <t>﻿Brunner, D.; Oellers, N.; Szabad, J.; Biggs, W.H., 3rd; Zipursky, S.L.; Hafen, E. Cell 1994, 76, 875–888. Oellers, N.; Hafen, E. J. Biol. Chem. 1996, 271, 24939–24944.</t>
+  </si>
+  <si>
+    <t>﻿Activated Rl phosphorylates and activates transcription factors such as Pnt.</t>
+  </si>
+  <si>
+    <t>en &amp; !Ci_rep</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !Ptc &amp; wg</t>
+  </si>
+  <si>
+    <t>!(Hh_ex &amp; en)</t>
+  </si>
+  <si>
+    <t>!Ptc</t>
+  </si>
+  <si>
+    <t>!Smo</t>
+  </si>
+  <si>
+    <t>!vnd &amp; !ind</t>
+  </si>
+  <si>
+    <t>Boolean functions were driven based on the information on morphologies of the NBs observed in vivo around late stage 11 (according to Bossing et al., 1996). ﻿Gene expression along the A/P axis (e.g., wg, wingless; gsb, gooseberry; en, engrailed) and the dorso-ventral axis (vnd, ventral nervous system defective; ind, intermediate neuroblasts defective; msh, muscle segment homeobox) subdivide the vNR (ventral neuroectoderm) into a grid-like Cartesian coordinate system. This system provides positional information, which specifies the identities of proneural clusters. Each proneural cluster gives rise to one specific NB. For example, NB6-4 delaminates from a proneural cluster that expresses msh and engrailed. NB4-6 gives rise to glial cells exclusively. Proneural clusters expressing wg and gsb along A/P axis considered as one domain since their expression is regulated by Hh signaling. Gsb and wg also regulate each other's expression. (Note: "wg&amp;gsb" may be represented only via wg for simplicity.)</t>
+  </si>
+  <si>
+    <t>﻿Brunner, D.; Oellers, N.; Szabad, J.; Biggs, W.H., 3rd; Zipursky, S.L.; Hafen, E. Cell 1994, 76, 875–888.</t>
+  </si>
+  <si>
+    <t>Cowden and Levine, 2003; ﻿J. Seibert, R. Urbach, Developmental Biology 346 (2010) 332–345; ﻿Golembo, M., Yarnitzky, T., Volk, T. &amp; Shilo, B. Z. (1999) Genes Dev. 13, 158–162; ﻿Levine, M., &amp; Davidson, E. H. (2005, April 5).  Proceedings of the National Academy of Sciences of the United States of America. https://doi.org/10.1073/pnas.0408031102</t>
   </si>
 </sst>
 </file>
@@ -946,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1066,58 +1070,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1132,6 +1085,60 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,15 +1457,15 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.33203125" customWidth="1"/>
+    <col min="3" max="3" width="104.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1476,18 +1483,18 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>112</v>
+      <c r="C2" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1499,7 +1506,7 @@
         <v>67</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>62</v>
@@ -1511,40 +1518,40 @@
         <v>69</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>61</v>
@@ -1553,228 +1560,228 @@
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>102</v>
+        <v>134</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>96</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="46"/>
+        <v>125</v>
+      </c>
+      <c r="D11" s="53"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>99</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
+        <v>87</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>109</v>
+        <v>128</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>146</v>
       </c>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="47"/>
+        <v>129</v>
+      </c>
+      <c r="D19" s="54"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>111</v>
+      <c r="D21" s="54" t="s">
+        <v>101</v>
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47"/>
+        <v>123</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.25">
@@ -2194,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E54B9C-9798-7F46-81A1-C5EA92519C78}">
   <dimension ref="B2:Z115"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="T111" sqref="T111"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2216,58 +2223,58 @@
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
       </c>
       <c r="L2" t="s">
         <v>63</v>
       </c>
       <c r="M2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="O2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
         <v>86</v>
-      </c>
-      <c r="R2" t="s">
-        <v>89</v>
-      </c>
-      <c r="S2" t="s">
-        <v>91</v>
       </c>
       <c r="T2" t="s">
         <v>15</v>
@@ -2276,16 +2283,16 @@
         <v>14</v>
       </c>
       <c r="V2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W2" t="s">
         <v>6</v>
       </c>
       <c r="X2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Y2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
@@ -2299,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2373,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2669,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2965,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3261,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3557,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3853,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4001,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4149,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4297,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4436,22 +4443,22 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s">
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -4460,13 +4467,13 @@
         <v>15</v>
       </c>
       <c r="K37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.2">
@@ -6138,22 +6145,22 @@
       </c>
     </row>
     <row r="85" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
     </row>
     <row r="86" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C86" s="38" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>68</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G86" s="39" t="s">
         <v>6</v>
@@ -6168,13 +6175,13 @@
         <v>15</v>
       </c>
       <c r="K86" s="39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L86" s="39" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M86" s="40" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
@@ -6369,14 +6376,14 @@
       <c r="P91" s="41">
         <v>1</v>
       </c>
-      <c r="Q91" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="R91" s="55"/>
+      <c r="Q91" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="R91" s="62"/>
       <c r="S91" s="41">
         <v>7</v>
       </c>
-      <c r="T91" s="52"/>
+      <c r="T91" s="69"/>
     </row>
     <row r="92" spans="2:20" ht="22" x14ac:dyDescent="0.25">
       <c r="B92" s="43">
@@ -6416,16 +6423,16 @@
         <v>1</v>
       </c>
       <c r="P92" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q92" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="R92" s="50"/>
+        <v>114</v>
+      </c>
+      <c r="Q92" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="R92" s="57"/>
       <c r="S92" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="T92" s="53"/>
+      <c r="T92" s="70"/>
     </row>
     <row r="93" spans="2:20" ht="22" x14ac:dyDescent="0.25">
       <c r="B93" s="43">
@@ -6464,18 +6471,18 @@
       <c r="M93" s="32">
         <v>1</v>
       </c>
-      <c r="P93" s="65" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q93" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="R93" s="60"/>
-      <c r="S93" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="T93" s="50" t="s">
-        <v>94</v>
+      <c r="P93" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q93" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="R93" s="63"/>
+      <c r="S93" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="T93" s="57" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="2:20" ht="22" x14ac:dyDescent="0.25">
@@ -6515,17 +6522,17 @@
       <c r="M94" s="32">
         <v>1</v>
       </c>
-      <c r="P94" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q94" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="R94" s="61"/>
-      <c r="S94" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="T94" s="51"/>
+      <c r="P94" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q94" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="R94" s="64"/>
+      <c r="S94" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="T94" s="58"/>
     </row>
     <row r="95" spans="2:20" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="43">
@@ -6564,15 +6571,15 @@
       <c r="M95" s="34">
         <v>1</v>
       </c>
-      <c r="P95" s="67"/>
-      <c r="Q95" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="R95" s="57"/>
-      <c r="S95" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="T95" s="50" t="s">
+      <c r="P95" s="50"/>
+      <c r="Q95" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="R95" s="66"/>
+      <c r="S95" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="T95" s="57" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6613,13 +6620,13 @@
       <c r="M96" s="29">
         <v>1</v>
       </c>
-      <c r="P96" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q96" s="63"/>
-      <c r="R96" s="58"/>
-      <c r="S96" s="58"/>
-      <c r="T96" s="51"/>
+      <c r="P96" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q96" s="67"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="56"/>
+      <c r="T96" s="58"/>
     </row>
     <row r="97" spans="2:21" ht="22" x14ac:dyDescent="0.25">
       <c r="B97" s="43">
@@ -6658,17 +6665,17 @@
       <c r="M97" s="32">
         <v>1</v>
       </c>
-      <c r="P97" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q97" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="R97" s="59"/>
-      <c r="S97" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="T97" s="50" t="s">
+      <c r="P97" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q97" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="R97" s="55"/>
+      <c r="S97" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="T97" s="57" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6709,13 +6716,13 @@
       <c r="M98" s="32">
         <v>1</v>
       </c>
-      <c r="P98" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q98" s="63"/>
-      <c r="R98" s="58"/>
-      <c r="S98" s="58"/>
-      <c r="T98" s="51"/>
+      <c r="P98" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q98" s="67"/>
+      <c r="R98" s="56"/>
+      <c r="S98" s="56"/>
+      <c r="T98" s="58"/>
     </row>
     <row r="99" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B99" s="43">
@@ -6868,7 +6875,7 @@
       <c r="M102" s="32">
         <v>1</v>
       </c>
-      <c r="P102" s="56"/>
+      <c r="P102" s="47"/>
     </row>
     <row r="103" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B103" s="43">
@@ -6907,7 +6914,7 @@
       <c r="M103" s="32">
         <v>1</v>
       </c>
-      <c r="P103" s="56"/>
+      <c r="P103" s="47"/>
     </row>
     <row r="104" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B104" s="43">
@@ -7074,10 +7081,10 @@
       <c r="E108" s="18">
         <v>0</v>
       </c>
-      <c r="F108" s="27">
-        <v>1</v>
-      </c>
-      <c r="G108" s="35">
+      <c r="F108" s="36">
+        <v>1</v>
+      </c>
+      <c r="G108" s="36">
         <v>1</v>
       </c>
       <c r="H108" s="35">
@@ -7112,7 +7119,7 @@
       <c r="E109" s="19">
         <v>0</v>
       </c>
-      <c r="F109" s="31">
+      <c r="F109" s="36">
         <v>1</v>
       </c>
       <c r="G109" s="36">
@@ -7150,7 +7157,7 @@
       <c r="E110" s="19">
         <v>0</v>
       </c>
-      <c r="F110" s="31">
+      <c r="F110" s="36">
         <v>1</v>
       </c>
       <c r="G110" s="36">
@@ -7174,7 +7181,7 @@
       <c r="M110" s="32">
         <v>1</v>
       </c>
-      <c r="P110" s="56"/>
+      <c r="P110" s="47"/>
     </row>
     <row r="111" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B111" s="43">
@@ -7189,7 +7196,7 @@
       <c r="E111" s="19">
         <v>0</v>
       </c>
-      <c r="F111" s="31">
+      <c r="F111" s="36">
         <v>1</v>
       </c>
       <c r="G111" s="36">
@@ -7213,7 +7220,7 @@
       <c r="M111" s="32">
         <v>1</v>
       </c>
-      <c r="P111" s="56"/>
+      <c r="P111" s="47"/>
     </row>
     <row r="112" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B112" s="43">
@@ -7228,7 +7235,7 @@
       <c r="E112" s="19">
         <v>0</v>
       </c>
-      <c r="F112" s="31">
+      <c r="F112" s="36">
         <v>1</v>
       </c>
       <c r="G112" s="36">
@@ -7252,7 +7259,7 @@
       <c r="M112" s="32">
         <v>1</v>
       </c>
-      <c r="U112" s="56"/>
+      <c r="U112" s="47"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B113" s="43">
@@ -7267,7 +7274,7 @@
       <c r="E113" s="19">
         <v>0</v>
       </c>
-      <c r="F113" s="31">
+      <c r="F113" s="36">
         <v>1</v>
       </c>
       <c r="G113" s="36">
@@ -7305,7 +7312,7 @@
       <c r="E114" s="19">
         <v>0</v>
       </c>
-      <c r="F114" s="31">
+      <c r="F114" s="36">
         <v>1</v>
       </c>
       <c r="G114" s="36">
@@ -7343,10 +7350,10 @@
       <c r="E115" s="22">
         <v>0</v>
       </c>
-      <c r="F115" s="33">
-        <v>1</v>
-      </c>
-      <c r="G115" s="37">
+      <c r="F115" s="36">
+        <v>1</v>
+      </c>
+      <c r="G115" s="36">
         <v>1</v>
       </c>
       <c r="H115" s="37">

--- a/Logicalrules-Ref.xlsx
+++ b/Logicalrules-Ref.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAF04FC-3D3B-984F-ACC5-92C20D988D02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F83E9C-300A-904D-BD5B-9BC88B931A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="-7520" windowWidth="27660" windowHeight="17920" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
+    <workbookView xWindow="31440" yWindow="-9420" windowWidth="34620" windowHeight="21140" xr2:uid="{F31F6CA8-B888-8843-B081-2DDA7B73FD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Interaction" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="145">
   <si>
     <t>sna</t>
   </si>
@@ -224,12 +224,6 @@
     <t>Documentation</t>
   </si>
   <si>
-    <t>Im et al., 2015</t>
-  </si>
-  <si>
-    <t>﻿Baker 1987; Lee et al. 1992; Mohler and Vani 1992</t>
-  </si>
-  <si>
     <t>Fz</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Ci_act | Fz</t>
-  </si>
-  <si>
     <t>Wg_ex</t>
   </si>
   <si>
@@ -272,9 +263,6 @@
     <t>wg</t>
   </si>
   <si>
-    <t>Ci_act | gsb</t>
-  </si>
-  <si>
     <t>Egfr</t>
   </si>
   <si>
@@ -318,12 +306,6 @@
   </si>
   <si>
     <t>Neurons</t>
-  </si>
-  <si>
-    <t>Bhat et al., 1999</t>
-  </si>
-  <si>
-    <t>Gallet et al., 2000, Chen et al., 1999, Bhat et al., 1999</t>
   </si>
   <si>
     <t>﻿Once Smo is freed of the inhibitory effects of Ptc, Smo then signals through unknown mechanisms to the Fu/Cos2/Ci complex, causing hyperphosphorylation of Fu and Cos2 and causing the complex to loosen its hold on microtubules. This leads to the stabilization of full length Ci, which can then travel to the nucleus and function as a transcriptional activator, upregulating transcription of Hh target genes.</t>
@@ -350,12 +332,6 @@
 Pages 186-204, ISSN 0012-1606, https://doi.org/10.1006/dbio.1997.8660.; ﻿Gerhard M. Technau ﻿DEVELOPMENTAL DYNAMICS 235:861–869, 2006</t>
   </si>
   <si>
-    <t>En/hh, ptc, wg are transcribed at the anterior cells via Ci activator.</t>
-  </si>
-  <si>
-    <t>Secreted Hh interacts with its receptor Ptc, thus relieving the repression of Ptc on Smo. En positively regulates the hh gene and negatively regulates the Hedgehog targets encoded by ci, ptc and dpp.</t>
-  </si>
-  <si>
     <t>Secreted Hh interacts with its receptor Ptc, thus relieving the repression of Ptc on Smo.</t>
   </si>
   <si>
@@ -420,9 +396,6 @@
     <t>msh &amp; ((wg &amp;gsb) | en)</t>
   </si>
   <si>
-    <t>﻿Gsb maintains the wild-type level and pattern of wg expression in rows 4 and 5 in ptc mutants and in row 5 in wild-type embryos. Ci_act induces transcription of en, ptc, and wg.</t>
-  </si>
-  <si>
     <t>RAS/MAPK pathway which is represented with its core components Rl (see 13th reaction) activates Pnt and inhibits Aop.(Aop has not involved in the current model since we are not interested any targets regulated by Aop.)</t>
   </si>
   <si>
@@ -438,15 +411,6 @@
     <t>The Wg signal is transduced across the membrane involving Frizzled proteins (such as Fz and DFz2) in the adjacent receiving cells.</t>
   </si>
   <si>
-    <t>In row 5 cells, ptc represses gsb. ﻿Wg is an activator of gsb. (gsb and gsbn share overlapping functions in segmentation and the CNS.)</t>
-  </si>
-  <si>
-    <t>Bhat et al., 1999; Im et al., 2015</t>
-  </si>
-  <si>
-    <t>﻿In ﻿the absence of Hh ligand, repression of Smo allows Drosophila Protein Kinase A (PKA) phosphorylation of Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.</t>
-  </si>
-  <si>
     <t>PKA phosphorylates Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep.</t>
   </si>
   <si>
@@ -465,9 +429,6 @@
     <t xml:space="preserve"> !Ptc &amp; wg</t>
   </si>
   <si>
-    <t>!(Hh_ex &amp; en)</t>
-  </si>
-  <si>
     <t>!Ptc</t>
   </si>
   <si>
@@ -484,6 +445,40 @@
   </si>
   <si>
     <t>Cowden and Levine, 2003; ﻿J. Seibert, R. Urbach, Developmental Biology 346 (2010) 332–345; ﻿Golembo, M., Yarnitzky, T., Volk, T. &amp; Shilo, B. Z. (1999) Genes Dev. 13, 158–162; ﻿Levine, M., &amp; Davidson, E. H. (2005, April 5).  Proceedings of the National Academy of Sciences of the United States of America. https://doi.org/10.1073/pnas.0408031102</t>
+  </si>
+  <si>
+    <t>Im et al., 2015, 10.7554/eLife.10735</t>
+  </si>
+  <si>
+    <t>Bhat et al., Bioessays. 1999 Jun;21(6):472-85. doi: 10.1002/(SICI)1521-1878(199906)21:6&lt;472::AID-BIES4&gt;3.0.CO;2-W. PMID: 10402954.</t>
+  </si>
+  <si>
+    <t>Bhat et al., Bioessays. 1999 Jun;21(6):472-85. doi: 10.1002/(SICI)1521-1878(199906)21:6&lt;472::AID-BIES4&gt;3.0.CO;2-W. PMID: 10402954.; Im et al., 2015, 10.7554/eLife.10735</t>
+  </si>
+  <si>
+    <t>Wg binding to Fz and Arrow brings them together, thereby recruiting Dsh to themembrane. When the destruction complex is inactivated by receptor/Dsh activity, Arm/beta-catenin translocates to the nucleus where it binds the N-terminus of Tcf, displacing the Groucho co-repressor and recruiting activators to drive target gene expression. ﻿Wg protein that is transcribed and secreted from an anterior row of cells maintains the expression of a transcription factor, engrailed (en), in adjoining, posterior cells. In the model, the signalig transmission from dsh to arm and arm translocation to nucleus to activate en transcription was represented by Fz. Wg signaling was repr leading from wg to dsh, sgg, arm, and into the nucleus to regulate en expression.</t>
+  </si>
+  <si>
+    <t>Bejsovec, A. (2013), Wingless/Wnt signaling in Drosophila: The pattern and the pathway. Mol. Reprod. Dev., 80: 882-894. https://doi.org/10.1002/mrd.22228
+Swarup S, Verheyen EM. Wnt/Wingless signaling in Drosophila. Cold Spring Harb Perspect Biol. 2012 Jun 1;4(6):a007930. doi: 10.1101/cshperspect.a007930. PMID: 22535229; PMCID: PMC3367557.</t>
+  </si>
+  <si>
+    <t>In row 5 cells, ptc represses gsb. ﻿Wg is an activator of gsb. (gsb and gsbn share overlapping functions in segmentation and the CNS.) (This reaction has not included in the model yet.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!Hh_ex  | ! En </t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿In ﻿the absence of Hh ligand, repression of Smo allows Drosophila Protein Kinase A (PKA) phosphorylation of Ci on several sites and these phosphorylation events are required for the cleavage of Ci into Ci_rep. </t>
+  </si>
+  <si>
+    <t>Ci_act &amp; ! Ci_rep</t>
+  </si>
+  <si>
+    <t>﻿﻿Ci_rep represses wg, ptc and hh transcription. Gsb maintains the wild-type level and pattern of wg expression in rows 4 and 5 in ptc mutants and in row 5 in wild-type embryos. Ci_act induces transcription of ptc and wg. (Note: The regulation of gsb and ptc might be included later. )</t>
+  </si>
+  <si>
+    <t>Secreted Hh interacts with its receptor Ptc, thus relieving the repression of Ptc on Smo. En positively regulates the hh gene and negatively regulates the Hedgehog targets encoded by ci, ptc and dpp. Note: Ci_rep represses the transcription of ptc while Ci_act activates. But this reaction has not included in the model.</t>
   </si>
 </sst>
 </file>
@@ -1457,23 +1452,23 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="104.83203125" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>60</v>
@@ -1483,235 +1478,235 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C17" s="53"/>
       <c r="D17" s="54"/>
@@ -1722,13 +1717,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E18" s="7"/>
     </row>
@@ -1737,48 +1732,48 @@
         <v>14</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D19" s="54"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="54"/>
@@ -2223,58 +2218,58 @@
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
         <v>74</v>
       </c>
-      <c r="I2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" t="s">
-        <v>84</v>
-      </c>
       <c r="S2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s">
         <v>15</v>
@@ -2283,16 +2278,16 @@
         <v>14</v>
       </c>
       <c r="V2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W2" t="s">
         <v>6</v>
       </c>
       <c r="X2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Y2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
@@ -2306,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2380,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2676,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2972,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -3268,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -3564,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3860,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -4008,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -4156,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4304,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -4443,22 +4438,22 @@
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s">
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I37" t="s">
         <v>14</v>
@@ -4467,13 +4462,13 @@
         <v>15</v>
       </c>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.2">
@@ -6151,22 +6146,22 @@
     </row>
     <row r="86" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C86" s="38" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D86" s="39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G86" s="39" t="s">
         <v>6</v>
       </c>
       <c r="H86" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I86" s="39" t="s">
         <v>14</v>
@@ -6175,13 +6170,13 @@
         <v>15</v>
       </c>
       <c r="K86" s="39" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L86" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M86" s="40" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
@@ -6377,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="Q91" s="61" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="R91" s="62"/>
       <c r="S91" s="41">
@@ -6423,14 +6418,14 @@
         <v>1</v>
       </c>
       <c r="P92" s="45" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Q92" s="60" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="R92" s="57"/>
       <c r="S92" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="T92" s="70"/>
     </row>
@@ -6472,17 +6467,17 @@
         <v>1</v>
       </c>
       <c r="P93" s="48" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q93" s="63" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="R93" s="63"/>
       <c r="S93" s="48" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="T93" s="57" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="2:20" ht="22" x14ac:dyDescent="0.25">
@@ -6523,14 +6518,14 @@
         <v>1</v>
       </c>
       <c r="P94" s="49" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q94" s="64" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="R94" s="64"/>
       <c r="S94" s="51" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="T94" s="58"/>
     </row>
@@ -6573,11 +6568,11 @@
       </c>
       <c r="P95" s="50"/>
       <c r="Q95" s="65" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="R95" s="66"/>
       <c r="S95" s="55" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="T95" s="57" t="s">
         <v>15</v>
@@ -6621,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="P96" s="51" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q96" s="67"/>
       <c r="R96" s="56"/>
@@ -6666,14 +6661,14 @@
         <v>1</v>
       </c>
       <c r="P97" s="52" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q97" s="68" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="R97" s="55"/>
       <c r="S97" s="55" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="T97" s="57" t="s">
         <v>14</v>
@@ -6717,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="P98" s="51" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q98" s="67"/>
       <c r="R98" s="56"/>
